--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_5_13.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_5_13.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-76429.67044512072</v>
+        <v>-85728.29621532506</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>30133877.5916827</v>
+        <v>30133877.59168269</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>15297430.9934074</v>
+        <v>15297430.99340741</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>2065430.619991987</v>
+        <v>1985990.980761527</v>
       </c>
     </row>
     <row r="11">
@@ -2081,7 +2083,7 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>119.9590006241146</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
         <v>0</v>
@@ -2093,13 +2095,13 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2129,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
         <v>0</v>
@@ -2138,10 +2140,10 @@
         <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
         <v>0</v>
@@ -2157,25 +2159,25 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>120.0908620689655</v>
+        <v>0</v>
       </c>
       <c r="C21" t="n">
-        <v>105.3918965517241</v>
+        <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>94.13938596491228</v>
+        <v>0</v>
       </c>
       <c r="E21" t="n">
-        <v>93.17921052631581</v>
+        <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>82.55</v>
+        <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>84.53123883647795</v>
+        <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>41.31829566194965</v>
+        <v>0</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
@@ -2208,25 +2210,25 @@
         <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>62.82088317610075</v>
+        <v>0</v>
       </c>
       <c r="T21" t="n">
-        <v>128.8768572327044</v>
+        <v>0</v>
       </c>
       <c r="U21" t="n">
-        <v>174.5731815300314</v>
+        <v>0</v>
       </c>
       <c r="V21" t="n">
-        <v>197.1263427586206</v>
+        <v>0</v>
       </c>
       <c r="W21" t="n">
-        <v>183.4695267241379</v>
+        <v>0</v>
       </c>
       <c r="X21" t="n">
-        <v>153.3187614035088</v>
+        <v>0</v>
       </c>
       <c r="Y21" t="n">
-        <v>125.2209214285714</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -2242,22 +2244,22 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>29.65617469661807</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2290,22 +2292,22 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2318,7 +2320,7 @@
         <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="D23" t="n">
         <v>0</v>
@@ -2327,16 +2329,16 @@
         <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>240.9981399800543</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I23" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2366,25 +2368,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>0</v>
+        <v>143.8303565400109</v>
       </c>
       <c r="X23" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y23" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="24">
@@ -2412,7 +2414,7 @@
         <v>84.53123883647795</v>
       </c>
       <c r="H24" t="n">
-        <v>41.31829566194965</v>
+        <v>41.31829566194966</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
@@ -2476,19 +2478,19 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>71.51303160295848</v>
       </c>
       <c r="G25" t="n">
-        <v>84.85899356878446</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2521,13 +2523,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>275.6486707394257</v>
@@ -2542,7 +2544,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y25" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2561,10 +2563,10 @@
         <v>424.2958575201043</v>
       </c>
       <c r="E26" t="n">
-        <v>424.2958575201043</v>
+        <v>156.5603386732361</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G26" t="n">
         <v>0</v>
@@ -2606,13 +2608,13 @@
         <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U26" t="n">
-        <v>14.72901073819602</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
         <v>0</v>
@@ -2710,7 +2712,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C28" t="n">
         <v>170.8360944016073</v>
@@ -2722,10 +2724,10 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G28" t="n">
-        <v>163.9353622244306</v>
+        <v>57.9231002022874</v>
       </c>
       <c r="H28" t="n">
         <v>138.5031525665292</v>
@@ -2758,28 +2760,28 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>14.6925464717553</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="29">
@@ -2792,10 +2794,10 @@
         <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>388.8240912665597</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
         <v>0</v>
@@ -2804,10 +2806,10 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2843,7 +2845,7 @@
         <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
         <v>256.6300796561533</v>
@@ -2852,7 +2854,7 @@
         <v>358.9907805655117</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>347.3637975681711</v>
       </c>
       <c r="X29" t="n">
         <v>0</v>
@@ -2886,7 +2888,7 @@
         <v>84.53123883647795</v>
       </c>
       <c r="H30" t="n">
-        <v>41.31829566194966</v>
+        <v>41.31829566194965</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
@@ -2947,10 +2949,10 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
         <v>164.2192128704925</v>
@@ -2959,16 +2961,16 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F31" t="n">
-        <v>174.9399834978613</v>
+        <v>84.21735615217479</v>
       </c>
       <c r="G31" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,22 +2997,22 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>157.6489550149833</v>
       </c>
       <c r="T31" t="n">
-        <v>209.5867542297959</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -3026,28 +3028,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>375.566452564622</v>
+        <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>424.2958575201043</v>
+        <v>410.6837167196853</v>
       </c>
       <c r="E32" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3092,7 +3094,7 @@
         <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y32" t="n">
         <v>0</v>
@@ -3184,19 +3186,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E34" t="n">
-        <v>168.0604237117701</v>
+        <v>93.50707780748226</v>
       </c>
       <c r="F34" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>163.9353622244306</v>
@@ -3235,25 +3237,25 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T34" t="n">
         <v>243.4206519573293</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W34" t="n">
-        <v>46.22746135858853</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>242.9378371199217</v>
       </c>
       <c r="Y34" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -3281,7 +3283,7 @@
         <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>155.8532364480161</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3314,13 +3316,13 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
         <v>217.8665548556918</v>
       </c>
       <c r="U35" t="n">
-        <v>73.03788137001466</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -3402,7 +3404,7 @@
         <v>174.5731815300314</v>
       </c>
       <c r="V36" t="n">
-        <v>197.1263427586207</v>
+        <v>197.1263427586206</v>
       </c>
       <c r="W36" t="n">
         <v>183.4695267241379</v>
@@ -3424,7 +3426,7 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C37" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
@@ -3433,7 +3435,7 @@
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
@@ -3469,16 +3471,16 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>1.933901061014605</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>89.45544891595532</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V37" t="n">
         <v>284.0859530482738</v>
@@ -3503,16 +3505,16 @@
         <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>125.9642526374251</v>
       </c>
       <c r="D38" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
         <v>0</v>
@@ -3521,7 +3523,7 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3551,10 +3553,10 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U38" t="n">
         <v>0</v>
@@ -3563,13 +3565,13 @@
         <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X38" t="n">
-        <v>374.0142720497965</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y38" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="39">
@@ -3639,7 +3641,7 @@
         <v>174.5731815300314</v>
       </c>
       <c r="V39" t="n">
-        <v>197.1263427586207</v>
+        <v>197.1263427586206</v>
       </c>
       <c r="W39" t="n">
         <v>183.4695267241379</v>
@@ -3658,7 +3660,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>33.38497374926131</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C40" t="n">
         <v>170.8360944016073</v>
@@ -3709,25 +3711,25 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>5.64492333244486</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="41">
@@ -3740,25 +3742,25 @@
         <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
         <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>210.0138952845027</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H41" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3788,19 +3790,19 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
         <v>256.6300796561533</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W41" t="n">
-        <v>378.3480422637228</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
         <v>0</v>
@@ -3867,7 +3869,7 @@
         <v>0</v>
       </c>
       <c r="S42" t="n">
-        <v>62.82088317610085</v>
+        <v>62.82088317610075</v>
       </c>
       <c r="T42" t="n">
         <v>128.8768572327044</v>
@@ -3895,7 +3897,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C43" t="n">
         <v>170.8360944016073</v>
@@ -3904,16 +3906,16 @@
         <v>164.2192128704925</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F43" t="n">
-        <v>126.0851666902836</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3952,13 +3954,13 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>14.41579817002531</v>
       </c>
       <c r="X43" t="n">
         <v>242.9378371199217</v>
@@ -3977,16 +3979,16 @@
         <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>374.0142720497965</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G44" t="n">
         <v>0</v>
@@ -3995,7 +3997,7 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4053,25 +4055,25 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>0</v>
+        <v>120.0908620689655</v>
       </c>
       <c r="C45" t="n">
-        <v>0</v>
+        <v>105.3918965517241</v>
       </c>
       <c r="D45" t="n">
-        <v>0</v>
+        <v>94.13938596491228</v>
       </c>
       <c r="E45" t="n">
-        <v>0</v>
+        <v>93.17921052631581</v>
       </c>
       <c r="F45" t="n">
-        <v>0</v>
+        <v>82.55</v>
       </c>
       <c r="G45" t="n">
-        <v>0</v>
+        <v>84.53123883647795</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>41.31829566194965</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
@@ -4104,25 +4106,25 @@
         <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>0</v>
+        <v>62.82088317610075</v>
       </c>
       <c r="T45" t="n">
-        <v>0</v>
+        <v>128.8768572327044</v>
       </c>
       <c r="U45" t="n">
-        <v>0</v>
+        <v>174.5731815300314</v>
       </c>
       <c r="V45" t="n">
-        <v>0</v>
+        <v>197.1263427586206</v>
       </c>
       <c r="W45" t="n">
-        <v>0</v>
+        <v>183.4695267241379</v>
       </c>
       <c r="X45" t="n">
-        <v>0</v>
+        <v>153.3187614035088</v>
       </c>
       <c r="Y45" t="n">
-        <v>0</v>
+        <v>125.2209214285714</v>
       </c>
     </row>
     <row r="46">
@@ -4132,28 +4134,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4183,7 +4185,7 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -4198,10 +4200,10 @@
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>169.5802855568755</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
   </sheetData>
@@ -5726,76 +5728,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>846.059151609114</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>724.8884439079882</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>724.8884439079882</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>724.8884439079882</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>724.8884439079882</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>323.4906125312521</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>34.36045797446834</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>33.94366860160834</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>453.9965675465116</v>
+        <v>0</v>
       </c>
       <c r="K20" t="n">
-        <v>453.9965675465116</v>
+        <v>0</v>
       </c>
       <c r="L20" t="n">
-        <v>453.9965675465116</v>
+        <v>0</v>
       </c>
       <c r="M20" t="n">
-        <v>453.9965675465116</v>
+        <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>453.9965675465116</v>
+        <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>687.9235674375537</v>
+        <v>0</v>
       </c>
       <c r="P20" t="n">
-        <v>1107.976466382457</v>
+        <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>1528.02936532736</v>
+        <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>1697.183430080417</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>1613.531556264254</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>1613.531556264254</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>1613.531556264254</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>1250.914606198081</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>846.059151609114</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>846.059151609114</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>846.059151609114</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -5805,76 +5807,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>540.1154135929012</v>
+        <v>0</v>
       </c>
       <c r="C21" t="n">
-        <v>433.6589524295435</v>
+        <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>338.5686635760967</v>
+        <v>0</v>
       </c>
       <c r="E21" t="n">
-        <v>244.4482489030504</v>
+        <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>161.0644105192121</v>
+        <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>75.67932078539593</v>
+        <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>33.94366860160834</v>
+        <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>33.94366860160834</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>358.5019935678207</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>778.554892512724</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>1159.957753041174</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>1159.957753041174</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>1159.957753041174</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>1159.957753041174</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>1159.957753041174</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>1580.010651986078</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>1697.183430080417</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>1633.7279925288</v>
+        <v>0</v>
       </c>
       <c r="T21" t="n">
-        <v>1503.549348859402</v>
+        <v>0</v>
       </c>
       <c r="U21" t="n">
-        <v>1327.21280185937</v>
+        <v>0</v>
       </c>
       <c r="V21" t="n">
-        <v>1128.09528392137</v>
+        <v>0</v>
       </c>
       <c r="W21" t="n">
-        <v>942.7725296545636</v>
+        <v>0</v>
       </c>
       <c r="X21" t="n">
-        <v>787.9050938934436</v>
+        <v>0</v>
       </c>
       <c r="Y21" t="n">
-        <v>661.4193146726643</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -5884,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>664.9024004297028</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>664.9024004297028</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>499.0244076312255</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>329.2664038819627</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>152.5593498437189</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>152.5593498437189</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>122.603617826933</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>33.94366860160834</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>120.5233537662982</v>
+        <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>395.2818083374338</v>
+        <v>0</v>
       </c>
       <c r="L22" t="n">
-        <v>813.4916901053949</v>
+        <v>0</v>
       </c>
       <c r="M22" t="n">
-        <v>813.4916901053949</v>
+        <v>0</v>
       </c>
       <c r="N22" t="n">
-        <v>813.4916901053949</v>
+        <v>0</v>
       </c>
       <c r="O22" t="n">
-        <v>1181.483761245743</v>
+        <v>0</v>
       </c>
       <c r="P22" t="n">
-        <v>1528.990655216085</v>
+        <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>1697.183430080417</v>
+        <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>1697.183430080417</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>1697.183430080417</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>1451.303983658873</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>1451.303983658873</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>1164.348475529303</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>892.3220711155946</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>892.3220711155946</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>664.9024004297028</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -5963,25 +5965,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1134.24202645431</v>
+        <v>724.4716545351282</v>
       </c>
       <c r="C23" t="n">
-        <v>705.6603521915781</v>
+        <v>724.4716545351282</v>
       </c>
       <c r="D23" t="n">
-        <v>705.6603521915781</v>
+        <v>724.4716545351282</v>
       </c>
       <c r="E23" t="n">
-        <v>705.6603521915781</v>
+        <v>724.4716545351282</v>
       </c>
       <c r="F23" t="n">
-        <v>277.7929226007859</v>
+        <v>724.4716545351282</v>
       </c>
       <c r="G23" t="n">
-        <v>34.36045797446834</v>
+        <v>323.0738231583921</v>
       </c>
       <c r="H23" t="n">
-        <v>34.36045797446834</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="I23" t="n">
         <v>33.94366860160834</v>
@@ -6014,25 +6016,25 @@
         <v>1697.183430080417</v>
       </c>
       <c r="S23" t="n">
-        <v>1613.531556264254</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="T23" t="n">
-        <v>1393.464329137293</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="U23" t="n">
-        <v>1134.24202645431</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="V23" t="n">
-        <v>1134.24202645431</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="W23" t="n">
-        <v>1134.24202645431</v>
+        <v>1551.900241656164</v>
       </c>
       <c r="X23" t="n">
-        <v>1134.24202645431</v>
+        <v>1132.757778235475</v>
       </c>
       <c r="Y23" t="n">
-        <v>1134.24202645431</v>
+        <v>724.4716545351282</v>
       </c>
     </row>
     <row r="24">
@@ -6045,7 +6047,7 @@
         <v>540.1154135929012</v>
       </c>
       <c r="C24" t="n">
-        <v>433.6589524295435</v>
+        <v>433.6589524295434</v>
       </c>
       <c r="D24" t="n">
         <v>338.5686635760967</v>
@@ -6054,10 +6056,10 @@
         <v>244.4482489030504</v>
       </c>
       <c r="F24" t="n">
-        <v>161.0644105192121</v>
+        <v>161.064410519212</v>
       </c>
       <c r="G24" t="n">
-        <v>75.67932078539593</v>
+        <v>75.67932078539589</v>
       </c>
       <c r="H24" t="n">
         <v>33.94366860160834</v>
@@ -6072,16 +6074,16 @@
         <v>804.6185656731816</v>
       </c>
       <c r="L24" t="n">
-        <v>1159.957753041174</v>
+        <v>804.6185656731816</v>
       </c>
       <c r="M24" t="n">
-        <v>1159.957753041174</v>
+        <v>804.6185656731816</v>
       </c>
       <c r="N24" t="n">
-        <v>1159.957753041174</v>
+        <v>804.6185656731816</v>
       </c>
       <c r="O24" t="n">
-        <v>1159.957753041174</v>
+        <v>804.6185656731816</v>
       </c>
       <c r="P24" t="n">
         <v>1159.957753041174</v>
@@ -6121,19 +6123,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>119.6598237215927</v>
+        <v>614.3767621236573</v>
       </c>
       <c r="C25" t="n">
-        <v>119.6598237215927</v>
+        <v>441.8150506068822</v>
       </c>
       <c r="D25" t="n">
-        <v>119.6598237215927</v>
+        <v>275.9370578084049</v>
       </c>
       <c r="E25" t="n">
-        <v>119.6598237215927</v>
+        <v>106.1790540591422</v>
       </c>
       <c r="F25" t="n">
-        <v>119.6598237215927</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="G25" t="n">
         <v>33.94366860160834</v>
@@ -6145,52 +6147,52 @@
         <v>33.94366860160834</v>
       </c>
       <c r="J25" t="n">
-        <v>120.5233537662982</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="K25" t="n">
-        <v>341.7616130750586</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="L25" t="n">
-        <v>341.7616130750586</v>
+        <v>452.1535503695694</v>
       </c>
       <c r="M25" t="n">
-        <v>761.8145120199619</v>
+        <v>872.2064493144727</v>
       </c>
       <c r="N25" t="n">
-        <v>761.8145120199619</v>
+        <v>1292.259348259376</v>
       </c>
       <c r="O25" t="n">
-        <v>1181.483761245743</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="P25" t="n">
-        <v>1528.990655216085</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="Q25" t="n">
         <v>1697.183430080417</v>
       </c>
       <c r="R25" t="n">
-        <v>1675.765608785789</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="S25" t="n">
-        <v>1675.765608785789</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="T25" t="n">
-        <v>1429.886162364244</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="U25" t="n">
-        <v>1151.45316161735</v>
+        <v>1418.750429333523</v>
       </c>
       <c r="V25" t="n">
-        <v>864.4976534877803</v>
+        <v>1131.794921203953</v>
       </c>
       <c r="W25" t="n">
-        <v>592.4712490740719</v>
+        <v>859.7685167902448</v>
       </c>
       <c r="X25" t="n">
-        <v>347.0794944074844</v>
+        <v>614.3767621236573</v>
       </c>
       <c r="Y25" t="n">
-        <v>119.6598237215927</v>
+        <v>614.3767621236573</v>
       </c>
     </row>
     <row r="26">
@@ -6200,16 +6202,16 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1319.688691389803</v>
+        <v>1477.116202953456</v>
       </c>
       <c r="C26" t="n">
-        <v>891.1070171270717</v>
+        <v>1048.534528690724</v>
       </c>
       <c r="D26" t="n">
-        <v>462.52534286434</v>
+        <v>619.9528544279926</v>
       </c>
       <c r="E26" t="n">
-        <v>33.94366860160834</v>
+        <v>461.8110981924006</v>
       </c>
       <c r="F26" t="n">
         <v>33.94366860160834</v>
@@ -6227,7 +6229,7 @@
         <v>453.9965675465116</v>
       </c>
       <c r="K26" t="n">
-        <v>453.9965675465116</v>
+        <v>857.0776321906106</v>
       </c>
       <c r="L26" t="n">
         <v>857.0776321906106</v>
@@ -6254,22 +6256,22 @@
         <v>1697.183430080417</v>
       </c>
       <c r="T26" t="n">
-        <v>1697.183430080417</v>
+        <v>1477.116202953456</v>
       </c>
       <c r="U26" t="n">
-        <v>1682.305641455977</v>
+        <v>1477.116202953456</v>
       </c>
       <c r="V26" t="n">
-        <v>1319.688691389803</v>
+        <v>1477.116202953456</v>
       </c>
       <c r="W26" t="n">
-        <v>1319.688691389803</v>
+        <v>1477.116202953456</v>
       </c>
       <c r="X26" t="n">
-        <v>1319.688691389803</v>
+        <v>1477.116202953456</v>
       </c>
       <c r="Y26" t="n">
-        <v>1319.688691389803</v>
+        <v>1477.116202953456</v>
       </c>
     </row>
     <row r="27">
@@ -6300,25 +6302,25 @@
         <v>33.94366860160834</v>
       </c>
       <c r="I27" t="n">
-        <v>60.00734176206595</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="J27" t="n">
-        <v>384.5656667282782</v>
+        <v>358.5019935678207</v>
       </c>
       <c r="K27" t="n">
-        <v>384.5656667282782</v>
+        <v>778.554892512724</v>
       </c>
       <c r="L27" t="n">
-        <v>384.5656667282782</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="M27" t="n">
-        <v>384.5656667282782</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="N27" t="n">
-        <v>384.5656667282782</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="O27" t="n">
-        <v>739.9048540962709</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="P27" t="n">
         <v>1159.957753041174</v>
@@ -6358,19 +6360,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>936.2947751752459</v>
+        <v>1005.91873626183</v>
       </c>
       <c r="C28" t="n">
-        <v>763.7330636584709</v>
+        <v>833.3570247450549</v>
       </c>
       <c r="D28" t="n">
-        <v>597.8550708599936</v>
+        <v>667.4790319465776</v>
       </c>
       <c r="E28" t="n">
-        <v>428.0970671107308</v>
+        <v>497.7210281973149</v>
       </c>
       <c r="F28" t="n">
-        <v>428.0970671107308</v>
+        <v>321.013974159071</v>
       </c>
       <c r="G28" t="n">
         <v>262.5057921365585</v>
@@ -6382,52 +6384,52 @@
         <v>33.94366860160834</v>
       </c>
       <c r="J28" t="n">
-        <v>120.5233537662982</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="K28" t="n">
-        <v>343.6046302520008</v>
+        <v>308.7021231727439</v>
       </c>
       <c r="L28" t="n">
-        <v>761.8145120199619</v>
+        <v>726.9120049407049</v>
       </c>
       <c r="M28" t="n">
-        <v>761.8145120199619</v>
+        <v>726.9120049407049</v>
       </c>
       <c r="N28" t="n">
-        <v>761.8145120199619</v>
+        <v>930.0072868842942</v>
       </c>
       <c r="O28" t="n">
-        <v>1181.483761245743</v>
+        <v>1349.676536110076</v>
       </c>
       <c r="P28" t="n">
-        <v>1528.990655216085</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="Q28" t="n">
         <v>1697.183430080417</v>
       </c>
       <c r="R28" t="n">
-        <v>1675.765608785789</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="S28" t="n">
-        <v>1516.524240083786</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="T28" t="n">
-        <v>1501.68328405171</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="U28" t="n">
-        <v>1223.250283304815</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="V28" t="n">
-        <v>936.2947751752459</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="W28" t="n">
-        <v>936.2947751752459</v>
+        <v>1425.157025666709</v>
       </c>
       <c r="X28" t="n">
-        <v>936.2947751752459</v>
+        <v>1425.157025666709</v>
       </c>
       <c r="Y28" t="n">
-        <v>936.2947751752459</v>
+        <v>1197.737354980817</v>
       </c>
     </row>
     <row r="29">
@@ -6437,22 +6439,22 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>855.2769502042993</v>
+        <v>724.4716545351282</v>
       </c>
       <c r="C29" t="n">
-        <v>462.52534286434</v>
+        <v>724.4716545351282</v>
       </c>
       <c r="D29" t="n">
-        <v>33.94366860160834</v>
+        <v>724.4716545351282</v>
       </c>
       <c r="E29" t="n">
-        <v>33.94366860160834</v>
+        <v>724.4716545351282</v>
       </c>
       <c r="F29" t="n">
-        <v>33.94366860160834</v>
+        <v>724.4716545351282</v>
       </c>
       <c r="G29" t="n">
-        <v>33.94366860160834</v>
+        <v>323.0738231583921</v>
       </c>
       <c r="H29" t="n">
         <v>33.94366860160834</v>
@@ -6491,22 +6493,22 @@
         <v>1697.183430080417</v>
       </c>
       <c r="T29" t="n">
-        <v>1477.116202953456</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="U29" t="n">
-        <v>1217.893900270473</v>
+        <v>1437.961127397434</v>
       </c>
       <c r="V29" t="n">
-        <v>855.2769502042993</v>
+        <v>1075.344177331261</v>
       </c>
       <c r="W29" t="n">
-        <v>855.2769502042993</v>
+        <v>724.4716545351282</v>
       </c>
       <c r="X29" t="n">
-        <v>855.2769502042993</v>
+        <v>724.4716545351282</v>
       </c>
       <c r="Y29" t="n">
-        <v>855.2769502042993</v>
+        <v>724.4716545351282</v>
       </c>
     </row>
     <row r="30">
@@ -6531,7 +6533,7 @@
         <v>161.064410519212</v>
       </c>
       <c r="G30" t="n">
-        <v>75.67932078539589</v>
+        <v>75.67932078539587</v>
       </c>
       <c r="H30" t="n">
         <v>33.94366860160834</v>
@@ -6546,19 +6548,19 @@
         <v>804.6185656731816</v>
       </c>
       <c r="L30" t="n">
-        <v>804.6185656731816</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="M30" t="n">
-        <v>804.6185656731816</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="N30" t="n">
-        <v>804.6185656731816</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="O30" t="n">
         <v>1159.957753041174</v>
       </c>
       <c r="P30" t="n">
-        <v>1580.010651986078</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="Q30" t="n">
         <v>1580.010651986078</v>
@@ -6595,43 +6597,43 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>1113.00182921349</v>
+        <v>454.6477016666967</v>
       </c>
       <c r="C31" t="n">
-        <v>940.4401176967148</v>
+        <v>454.6477016666967</v>
       </c>
       <c r="D31" t="n">
-        <v>774.5621248982375</v>
+        <v>288.7697088682194</v>
       </c>
       <c r="E31" t="n">
-        <v>604.8041211489747</v>
+        <v>119.0117051189566</v>
       </c>
       <c r="F31" t="n">
-        <v>428.0970671107308</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="G31" t="n">
-        <v>262.5057921365585</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="H31" t="n">
-        <v>122.603617826933</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="I31" t="n">
         <v>33.94366860160834</v>
       </c>
       <c r="J31" t="n">
-        <v>67.00315850392299</v>
+        <v>120.5233537662982</v>
       </c>
       <c r="K31" t="n">
-        <v>341.7616130750586</v>
+        <v>395.2818083374338</v>
       </c>
       <c r="L31" t="n">
-        <v>341.7616130750586</v>
+        <v>813.4916901053949</v>
       </c>
       <c r="M31" t="n">
-        <v>761.8145120199619</v>
+        <v>813.4916901053949</v>
       </c>
       <c r="N31" t="n">
-        <v>761.8145120199619</v>
+        <v>813.4916901053949</v>
       </c>
       <c r="O31" t="n">
         <v>1181.483761245743</v>
@@ -6643,28 +6645,28 @@
         <v>1697.183430080417</v>
       </c>
       <c r="R31" t="n">
-        <v>1675.765608785789</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="S31" t="n">
-        <v>1516.524240083786</v>
+        <v>1537.942061378414</v>
       </c>
       <c r="T31" t="n">
-        <v>1304.820447932477</v>
+        <v>1292.062614956869</v>
       </c>
       <c r="U31" t="n">
-        <v>1304.820447932477</v>
+        <v>1013.629614209975</v>
       </c>
       <c r="V31" t="n">
-        <v>1304.820447932477</v>
+        <v>726.6741060804052</v>
       </c>
       <c r="W31" t="n">
-        <v>1304.820447932477</v>
+        <v>454.6477016666967</v>
       </c>
       <c r="X31" t="n">
-        <v>1304.820447932477</v>
+        <v>454.6477016666967</v>
       </c>
       <c r="Y31" t="n">
-        <v>1304.820447932477</v>
+        <v>454.6477016666967</v>
       </c>
     </row>
     <row r="32">
@@ -6674,25 +6676,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1270.883859595509</v>
+        <v>1278.040966659728</v>
       </c>
       <c r="C32" t="n">
-        <v>891.5238064999317</v>
+        <v>1278.040966659728</v>
       </c>
       <c r="D32" t="n">
-        <v>462.9421322372</v>
+        <v>863.2089295691367</v>
       </c>
       <c r="E32" t="n">
-        <v>34.36045797446834</v>
+        <v>863.2089295691367</v>
       </c>
       <c r="F32" t="n">
-        <v>34.36045797446834</v>
+        <v>435.3414999783445</v>
       </c>
       <c r="G32" t="n">
-        <v>34.36045797446834</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="H32" t="n">
-        <v>34.36045797446834</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="I32" t="n">
         <v>33.94366860160834</v>
@@ -6701,19 +6703,19 @@
         <v>453.9965675465116</v>
       </c>
       <c r="K32" t="n">
-        <v>874.0494664914149</v>
+        <v>453.9965675465116</v>
       </c>
       <c r="L32" t="n">
-        <v>1107.976466382457</v>
+        <v>453.9965675465116</v>
       </c>
       <c r="M32" t="n">
-        <v>1107.976466382457</v>
+        <v>453.9965675465116</v>
       </c>
       <c r="N32" t="n">
-        <v>1107.976466382457</v>
+        <v>453.9965675465116</v>
       </c>
       <c r="O32" t="n">
-        <v>1107.976466382457</v>
+        <v>687.9235674375537</v>
       </c>
       <c r="P32" t="n">
         <v>1107.976466382457</v>
@@ -6740,10 +6742,10 @@
         <v>1697.183430080417</v>
       </c>
       <c r="X32" t="n">
-        <v>1697.183430080417</v>
+        <v>1278.040966659728</v>
       </c>
       <c r="Y32" t="n">
-        <v>1697.183430080417</v>
+        <v>1278.040966659728</v>
       </c>
     </row>
     <row r="33">
@@ -6774,13 +6776,13 @@
         <v>33.94366860160834</v>
       </c>
       <c r="I33" t="n">
-        <v>60.00734176206595</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="J33" t="n">
-        <v>384.5656667282782</v>
+        <v>358.5019935678207</v>
       </c>
       <c r="K33" t="n">
-        <v>804.6185656731816</v>
+        <v>739.9048540962709</v>
       </c>
       <c r="L33" t="n">
         <v>1159.957753041174</v>
@@ -6832,16 +6834,16 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>718.5617128800624</v>
+        <v>459.8645301191896</v>
       </c>
       <c r="C34" t="n">
-        <v>546.0000013632873</v>
+        <v>459.8645301191896</v>
       </c>
       <c r="D34" t="n">
-        <v>546.0000013632873</v>
+        <v>293.9865373207123</v>
       </c>
       <c r="E34" t="n">
-        <v>376.2419976140245</v>
+        <v>199.5349435757807</v>
       </c>
       <c r="F34" t="n">
         <v>199.5349435757807</v>
@@ -6862,10 +6864,10 @@
         <v>395.2818083374338</v>
       </c>
       <c r="L34" t="n">
-        <v>813.4916901053949</v>
+        <v>395.2818083374338</v>
       </c>
       <c r="M34" t="n">
-        <v>813.4916901053949</v>
+        <v>761.43086230084</v>
       </c>
       <c r="N34" t="n">
         <v>1181.483761245743</v>
@@ -6883,25 +6885,25 @@
         <v>1675.765608785789</v>
       </c>
       <c r="S34" t="n">
-        <v>1675.765608785789</v>
+        <v>1516.524240083786</v>
       </c>
       <c r="T34" t="n">
-        <v>1429.886162364244</v>
+        <v>1270.644793662241</v>
       </c>
       <c r="U34" t="n">
-        <v>1429.886162364244</v>
+        <v>992.2117929153466</v>
       </c>
       <c r="V34" t="n">
-        <v>1429.886162364244</v>
+        <v>705.2562847857771</v>
       </c>
       <c r="W34" t="n">
-        <v>1383.191756951529</v>
+        <v>705.2562847857771</v>
       </c>
       <c r="X34" t="n">
-        <v>1137.800002284941</v>
+        <v>459.8645301191896</v>
       </c>
       <c r="Y34" t="n">
-        <v>910.3803315990494</v>
+        <v>459.8645301191896</v>
       </c>
     </row>
     <row r="35">
@@ -6911,22 +6913,22 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1319.688691389803</v>
+        <v>1477.116202953456</v>
       </c>
       <c r="C35" t="n">
-        <v>891.1070171270717</v>
+        <v>1048.534528690724</v>
       </c>
       <c r="D35" t="n">
-        <v>462.52534286434</v>
+        <v>619.9528544279926</v>
       </c>
       <c r="E35" t="n">
-        <v>33.94366860160834</v>
+        <v>191.371180165261</v>
       </c>
       <c r="F35" t="n">
-        <v>33.94366860160834</v>
+        <v>191.371180165261</v>
       </c>
       <c r="G35" t="n">
-        <v>33.94366860160834</v>
+        <v>191.371180165261</v>
       </c>
       <c r="H35" t="n">
         <v>33.94366860160834</v>
@@ -6935,19 +6937,19 @@
         <v>33.94366860160834</v>
       </c>
       <c r="J35" t="n">
-        <v>33.94366860160834</v>
+        <v>453.9965675465116</v>
       </c>
       <c r="K35" t="n">
-        <v>33.94366860160834</v>
+        <v>453.9965675465116</v>
       </c>
       <c r="L35" t="n">
-        <v>33.94366860160834</v>
+        <v>453.9965675465116</v>
       </c>
       <c r="M35" t="n">
-        <v>33.94366860160834</v>
+        <v>453.9965675465116</v>
       </c>
       <c r="N35" t="n">
-        <v>267.8706684926505</v>
+        <v>453.9965675465116</v>
       </c>
       <c r="O35" t="n">
         <v>687.9235674375537</v>
@@ -6962,25 +6964,25 @@
         <v>1697.183430080417</v>
       </c>
       <c r="S35" t="n">
-        <v>1613.531556264254</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="T35" t="n">
-        <v>1393.464329137293</v>
+        <v>1477.116202953456</v>
       </c>
       <c r="U35" t="n">
-        <v>1319.688691389803</v>
+        <v>1477.116202953456</v>
       </c>
       <c r="V35" t="n">
-        <v>1319.688691389803</v>
+        <v>1477.116202953456</v>
       </c>
       <c r="W35" t="n">
-        <v>1319.688691389803</v>
+        <v>1477.116202953456</v>
       </c>
       <c r="X35" t="n">
-        <v>1319.688691389803</v>
+        <v>1477.116202953456</v>
       </c>
       <c r="Y35" t="n">
-        <v>1319.688691389803</v>
+        <v>1477.116202953456</v>
       </c>
     </row>
     <row r="36">
@@ -7017,13 +7019,13 @@
         <v>384.5656667282782</v>
       </c>
       <c r="K36" t="n">
-        <v>739.9048540962709</v>
+        <v>804.6185656731816</v>
       </c>
       <c r="L36" t="n">
-        <v>739.9048540962709</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="M36" t="n">
-        <v>739.9048540962709</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="N36" t="n">
         <v>1159.957753041174</v>
@@ -7069,16 +7071,16 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>383.2124341566272</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="C37" t="n">
-        <v>210.6507226398521</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="D37" t="n">
-        <v>210.6507226398521</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="E37" t="n">
-        <v>210.6507226398521</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="F37" t="n">
         <v>33.94366860160834</v>
@@ -7093,52 +7095,52 @@
         <v>33.94366860160834</v>
       </c>
       <c r="J37" t="n">
-        <v>120.5233537662982</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="K37" t="n">
-        <v>395.2818083374338</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="L37" t="n">
-        <v>813.4916901053949</v>
+        <v>452.1535503695694</v>
       </c>
       <c r="M37" t="n">
-        <v>813.4916901053949</v>
+        <v>872.2064493144727</v>
       </c>
       <c r="N37" t="n">
-        <v>813.4916901053949</v>
+        <v>1277.514180854636</v>
       </c>
       <c r="O37" t="n">
-        <v>1181.483761245743</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="P37" t="n">
-        <v>1528.990655216085</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="Q37" t="n">
         <v>1697.183430080417</v>
       </c>
       <c r="R37" t="n">
-        <v>1697.183430080417</v>
+        <v>1695.229994665251</v>
       </c>
       <c r="S37" t="n">
-        <v>1697.183430080417</v>
+        <v>1535.988625963248</v>
       </c>
       <c r="T37" t="n">
-        <v>1697.183430080417</v>
+        <v>1535.988625963248</v>
       </c>
       <c r="U37" t="n">
-        <v>1606.824390771372</v>
+        <v>1257.555625216353</v>
       </c>
       <c r="V37" t="n">
-        <v>1319.868882641802</v>
+        <v>970.6001170867833</v>
       </c>
       <c r="W37" t="n">
-        <v>1047.842478228094</v>
+        <v>698.5737126730747</v>
       </c>
       <c r="X37" t="n">
-        <v>802.450723561506</v>
+        <v>453.1819580064872</v>
       </c>
       <c r="Y37" t="n">
-        <v>575.0310528756143</v>
+        <v>225.7622873205955</v>
       </c>
     </row>
     <row r="38">
@@ -7148,49 +7150,49 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1319.391236090724</v>
+        <v>161.1802874272903</v>
       </c>
       <c r="C38" t="n">
-        <v>1319.391236090724</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="D38" t="n">
-        <v>890.8095618279922</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="E38" t="n">
-        <v>462.2278875652606</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="F38" t="n">
-        <v>34.36045797446834</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="G38" t="n">
-        <v>34.36045797446834</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="H38" t="n">
-        <v>34.36045797446834</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="I38" t="n">
         <v>33.94366860160834</v>
       </c>
       <c r="J38" t="n">
-        <v>33.94366860160834</v>
+        <v>453.9965675465116</v>
       </c>
       <c r="K38" t="n">
-        <v>267.8706684926505</v>
+        <v>453.9965675465116</v>
       </c>
       <c r="L38" t="n">
+        <v>453.9965675465116</v>
+      </c>
+      <c r="M38" t="n">
+        <v>453.9965675465116</v>
+      </c>
+      <c r="N38" t="n">
+        <v>453.9965675465116</v>
+      </c>
+      <c r="O38" t="n">
         <v>687.9235674375537</v>
       </c>
-      <c r="M38" t="n">
+      <c r="P38" t="n">
         <v>1107.976466382457</v>
-      </c>
-      <c r="N38" t="n">
-        <v>1528.02936532736</v>
-      </c>
-      <c r="O38" t="n">
-        <v>1528.02936532736</v>
-      </c>
-      <c r="P38" t="n">
-        <v>1528.02936532736</v>
       </c>
       <c r="Q38" t="n">
         <v>1528.02936532736</v>
@@ -7199,25 +7201,25 @@
         <v>1697.183430080417</v>
       </c>
       <c r="S38" t="n">
-        <v>1697.183430080417</v>
+        <v>1613.531556264254</v>
       </c>
       <c r="T38" t="n">
-        <v>1697.183430080417</v>
+        <v>1393.464329137293</v>
       </c>
       <c r="U38" t="n">
-        <v>1697.183430080417</v>
+        <v>1393.464329137293</v>
       </c>
       <c r="V38" t="n">
-        <v>1697.183430080417</v>
+        <v>1393.464329137293</v>
       </c>
       <c r="W38" t="n">
-        <v>1697.183430080417</v>
+        <v>988.6088745483262</v>
       </c>
       <c r="X38" t="n">
-        <v>1319.391236090724</v>
+        <v>569.4664111276369</v>
       </c>
       <c r="Y38" t="n">
-        <v>1319.391236090724</v>
+        <v>161.1802874272903</v>
       </c>
     </row>
     <row r="39">
@@ -7257,16 +7259,16 @@
         <v>804.6185656731816</v>
       </c>
       <c r="L39" t="n">
-        <v>804.6185656731816</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="M39" t="n">
-        <v>804.6185656731816</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="N39" t="n">
-        <v>804.6185656731816</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="O39" t="n">
-        <v>804.6185656731816</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="P39" t="n">
         <v>1159.957753041174</v>
@@ -7330,19 +7332,19 @@
         <v>33.94366860160834</v>
       </c>
       <c r="J40" t="n">
-        <v>120.5233537662982</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="K40" t="n">
-        <v>395.2818083374338</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="L40" t="n">
-        <v>395.2818083374338</v>
+        <v>341.7616130750586</v>
       </c>
       <c r="M40" t="n">
-        <v>815.3347072823371</v>
+        <v>341.7616130750586</v>
       </c>
       <c r="N40" t="n">
-        <v>815.3347072823371</v>
+        <v>761.8145120199619</v>
       </c>
       <c r="O40" t="n">
         <v>1181.483761245743</v>
@@ -7357,25 +7359,25 @@
         <v>1697.183430080417</v>
       </c>
       <c r="S40" t="n">
-        <v>1697.183430080417</v>
+        <v>1537.942061378414</v>
       </c>
       <c r="T40" t="n">
-        <v>1697.183430080417</v>
+        <v>1537.942061378414</v>
       </c>
       <c r="U40" t="n">
-        <v>1418.750429333523</v>
+        <v>1537.942061378414</v>
       </c>
       <c r="V40" t="n">
-        <v>1418.750429333523</v>
+        <v>1537.942061378414</v>
       </c>
       <c r="W40" t="n">
-        <v>1146.724024919814</v>
+        <v>1537.942061378414</v>
       </c>
       <c r="X40" t="n">
-        <v>1146.724024919814</v>
+        <v>1532.240118618369</v>
       </c>
       <c r="Y40" t="n">
-        <v>1146.724024919814</v>
+        <v>1304.820447932477</v>
       </c>
     </row>
     <row r="41">
@@ -7385,25 +7387,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>752.0722867939837</v>
+        <v>1075.344177331261</v>
       </c>
       <c r="C41" t="n">
-        <v>323.4906125312521</v>
+        <v>1075.344177331261</v>
       </c>
       <c r="D41" t="n">
-        <v>323.4906125312521</v>
+        <v>1075.344177331261</v>
       </c>
       <c r="E41" t="n">
-        <v>323.4906125312521</v>
+        <v>863.2089295691367</v>
       </c>
       <c r="F41" t="n">
-        <v>323.4906125312521</v>
+        <v>435.3414999783445</v>
       </c>
       <c r="G41" t="n">
-        <v>323.4906125312521</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="H41" t="n">
-        <v>34.36045797446834</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="I41" t="n">
         <v>33.94366860160834</v>
@@ -7412,19 +7414,19 @@
         <v>453.9965675465116</v>
       </c>
       <c r="K41" t="n">
-        <v>874.0494664914149</v>
+        <v>453.9965675465116</v>
       </c>
       <c r="L41" t="n">
-        <v>1107.976466382457</v>
+        <v>453.9965675465116</v>
       </c>
       <c r="M41" t="n">
-        <v>1107.976466382457</v>
+        <v>453.9965675465116</v>
       </c>
       <c r="N41" t="n">
-        <v>1107.976466382457</v>
+        <v>453.9965675465116</v>
       </c>
       <c r="O41" t="n">
-        <v>1107.976466382457</v>
+        <v>687.9235674375537</v>
       </c>
       <c r="P41" t="n">
         <v>1107.976466382457</v>
@@ -7436,25 +7438,25 @@
         <v>1697.183430080417</v>
       </c>
       <c r="S41" t="n">
-        <v>1613.531556264254</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="T41" t="n">
-        <v>1393.464329137293</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="U41" t="n">
-        <v>1134.24202645431</v>
+        <v>1437.961127397434</v>
       </c>
       <c r="V41" t="n">
-        <v>1134.24202645431</v>
+        <v>1075.344177331261</v>
       </c>
       <c r="W41" t="n">
-        <v>752.0722867939837</v>
+        <v>1075.344177331261</v>
       </c>
       <c r="X41" t="n">
-        <v>752.0722867939837</v>
+        <v>1075.344177331261</v>
       </c>
       <c r="Y41" t="n">
-        <v>752.0722867939837</v>
+        <v>1075.344177331261</v>
       </c>
     </row>
     <row r="42">
@@ -7485,31 +7487,31 @@
         <v>33.94366860160834</v>
       </c>
       <c r="I42" t="n">
-        <v>33.94366860160834</v>
+        <v>60.00734176206595</v>
       </c>
       <c r="J42" t="n">
-        <v>358.5019935678207</v>
+        <v>384.5656667282782</v>
       </c>
       <c r="K42" t="n">
-        <v>778.554892512724</v>
+        <v>804.6185656731816</v>
       </c>
       <c r="L42" t="n">
-        <v>778.554892512724</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="M42" t="n">
-        <v>778.554892512724</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="N42" t="n">
-        <v>778.554892512724</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="O42" t="n">
-        <v>778.554892512724</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="P42" t="n">
-        <v>1198.607791457627</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="Q42" t="n">
-        <v>1618.66069040253</v>
+        <v>1580.010651986078</v>
       </c>
       <c r="R42" t="n">
         <v>1697.183430080417</v>
@@ -7543,22 +7545,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>499.7421271494705</v>
+        <v>858.7506050139928</v>
       </c>
       <c r="C43" t="n">
-        <v>327.1804156326954</v>
+        <v>686.1888934972177</v>
       </c>
       <c r="D43" t="n">
-        <v>161.3024228342181</v>
+        <v>520.3109006987404</v>
       </c>
       <c r="E43" t="n">
-        <v>161.3024228342181</v>
+        <v>350.5528969494776</v>
       </c>
       <c r="F43" t="n">
-        <v>33.94366860160834</v>
+        <v>173.8458429112338</v>
       </c>
       <c r="G43" t="n">
-        <v>33.94366860160834</v>
+        <v>173.8458429112338</v>
       </c>
       <c r="H43" t="n">
         <v>33.94366860160834</v>
@@ -7573,13 +7575,13 @@
         <v>395.2818083374338</v>
       </c>
       <c r="L43" t="n">
-        <v>761.43086230084</v>
+        <v>395.2818083374338</v>
       </c>
       <c r="M43" t="n">
-        <v>1181.483761245743</v>
+        <v>815.3347072823371</v>
       </c>
       <c r="N43" t="n">
-        <v>1181.483761245743</v>
+        <v>815.3347072823371</v>
       </c>
       <c r="O43" t="n">
         <v>1181.483761245743</v>
@@ -7600,19 +7602,19 @@
         <v>1537.942061378414</v>
       </c>
       <c r="U43" t="n">
-        <v>1259.509060631519</v>
+        <v>1537.942061378414</v>
       </c>
       <c r="V43" t="n">
-        <v>972.5535525019498</v>
+        <v>1537.942061378414</v>
       </c>
       <c r="W43" t="n">
-        <v>972.5535525019498</v>
+        <v>1523.380649085459</v>
       </c>
       <c r="X43" t="n">
-        <v>727.1617978353622</v>
+        <v>1277.988894418872</v>
       </c>
       <c r="Y43" t="n">
-        <v>499.7421271494705</v>
+        <v>1050.56922373298</v>
       </c>
     </row>
     <row r="44">
@@ -7622,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>1319.391236090724</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>890.8095618279922</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>462.2278875652606</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>34.36045797446834</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>34.36045797446834</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>34.36045797446834</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>453.9965675465116</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>687.9235674375537</v>
       </c>
       <c r="L44" t="n">
-        <v>0</v>
+        <v>687.9235674375537</v>
       </c>
       <c r="M44" t="n">
-        <v>0</v>
+        <v>687.9235674375537</v>
       </c>
       <c r="N44" t="n">
-        <v>0</v>
+        <v>687.9235674375537</v>
       </c>
       <c r="O44" t="n">
-        <v>0</v>
+        <v>687.9235674375537</v>
       </c>
       <c r="P44" t="n">
-        <v>0</v>
+        <v>1107.976466382457</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>1528.02936532736</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>1697.183430080417</v>
       </c>
     </row>
     <row r="45">
@@ -7701,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>0</v>
+        <v>540.1154135929012</v>
       </c>
       <c r="C45" t="n">
-        <v>0</v>
+        <v>433.6589524295434</v>
       </c>
       <c r="D45" t="n">
-        <v>0</v>
+        <v>338.5686635760967</v>
       </c>
       <c r="E45" t="n">
-        <v>0</v>
+        <v>244.4482489030504</v>
       </c>
       <c r="F45" t="n">
-        <v>0</v>
+        <v>161.064410519212</v>
       </c>
       <c r="G45" t="n">
-        <v>0</v>
+        <v>75.67932078539587</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>60.00734176206595</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>384.5656667282782</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>804.6185656731816</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="N45" t="n">
-        <v>0</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>1580.010651986078</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="S45" t="n">
-        <v>0</v>
+        <v>1633.7279925288</v>
       </c>
       <c r="T45" t="n">
-        <v>0</v>
+        <v>1503.549348859402</v>
       </c>
       <c r="U45" t="n">
-        <v>0</v>
+        <v>1327.21280185937</v>
       </c>
       <c r="V45" t="n">
-        <v>0</v>
+        <v>1128.09528392137</v>
       </c>
       <c r="W45" t="n">
-        <v>0</v>
+        <v>942.7725296545636</v>
       </c>
       <c r="X45" t="n">
-        <v>0</v>
+        <v>787.9050938934436</v>
       </c>
       <c r="Y45" t="n">
-        <v>0</v>
+        <v>661.4193146726643</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>947.4105542393174</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>774.8488427225424</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>608.9708499240651</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>439.2128461748023</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>262.5057921365585</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>262.5057921365585</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>122.603617826933</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="J46" t="n">
-        <v>0</v>
+        <v>120.5233537662982</v>
       </c>
       <c r="K46" t="n">
-        <v>0</v>
+        <v>395.2818083374338</v>
       </c>
       <c r="L46" t="n">
-        <v>0</v>
+        <v>813.4916901053949</v>
       </c>
       <c r="M46" t="n">
-        <v>0</v>
+        <v>813.4916901053949</v>
       </c>
       <c r="N46" t="n">
-        <v>0</v>
+        <v>813.4916901053949</v>
       </c>
       <c r="O46" t="n">
-        <v>0</v>
+        <v>1181.483761245743</v>
       </c>
       <c r="P46" t="n">
-        <v>0</v>
+        <v>1528.990655216085</v>
       </c>
       <c r="Q46" t="n">
-        <v>0</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>1537.942061378414</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>1537.942061378414</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>1537.942061378414</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>1537.942061378414</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>1537.942061378414</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>1366.648843644196</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>1139.229172958305</v>
       </c>
     </row>
   </sheetData>
@@ -9398,7 +9400,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="K20" t="n">
         <v>0</v>
@@ -9413,16 +9415,16 @@
         <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>236.2898988798406</v>
+        <v>0</v>
       </c>
       <c r="P20" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9477,13 +9479,13 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>327.836691885063</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>385.2554146752024</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
         <v>0</v>
@@ -9498,10 +9500,10 @@
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>118.3563415094341</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9556,13 +9558,13 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>87.45422743908067</v>
+        <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>277.5337924960966</v>
+        <v>0</v>
       </c>
       <c r="L22" t="n">
-        <v>422.4342240080415</v>
+        <v>0</v>
       </c>
       <c r="M22" t="n">
         <v>0</v>
@@ -9571,13 +9573,13 @@
         <v>0</v>
       </c>
       <c r="O22" t="n">
-        <v>371.7091627680287</v>
+        <v>0</v>
       </c>
       <c r="P22" t="n">
-        <v>351.0170646165068</v>
+        <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>169.8916917821538</v>
+        <v>0</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -9720,19 +9722,19 @@
         <v>424.2958575201044</v>
       </c>
       <c r="L24" t="n">
+        <v>0</v>
+      </c>
+      <c r="M24" t="n">
+        <v>0</v>
+      </c>
+      <c r="N24" t="n">
+        <v>0</v>
+      </c>
+      <c r="O24" t="n">
+        <v>0</v>
+      </c>
+      <c r="P24" t="n">
         <v>358.9284720888814</v>
-      </c>
-      <c r="M24" t="n">
-        <v>0</v>
-      </c>
-      <c r="N24" t="n">
-        <v>0</v>
-      </c>
-      <c r="O24" t="n">
-        <v>0</v>
-      </c>
-      <c r="P24" t="n">
-        <v>0</v>
       </c>
       <c r="Q24" t="n">
         <v>424.2958575201044</v>
@@ -9793,28 +9795,28 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>87.45422743908067</v>
+        <v>0</v>
       </c>
       <c r="K25" t="n">
-        <v>223.4729892007681</v>
+        <v>0</v>
       </c>
       <c r="L25" t="n">
-        <v>0</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M25" t="n">
-        <v>424.2958575201043</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="N25" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="O25" t="n">
-        <v>423.9083325512944</v>
+        <v>409.0142240616578</v>
       </c>
       <c r="P25" t="n">
-        <v>351.0170646165068</v>
+        <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>169.8916917821538</v>
+        <v>0</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -9875,10 +9877,10 @@
         <v>424.2958575201043</v>
       </c>
       <c r="K26" t="n">
-        <v>0</v>
+        <v>407.152590549595</v>
       </c>
       <c r="L26" t="n">
-        <v>407.152590549595</v>
+        <v>0</v>
       </c>
       <c r="M26" t="n">
         <v>0</v>
@@ -9948,16 +9950,16 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>385.2554146752024</v>
       </c>
       <c r="M27" t="n">
         <v>0</v>
@@ -9966,10 +9968,10 @@
         <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>358.9284720888815</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>424.2958575201044</v>
@@ -10030,10 +10032,10 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>87.45422743908067</v>
+        <v>0</v>
       </c>
       <c r="K28" t="n">
-        <v>225.3346227128309</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L28" t="n">
         <v>422.4342240080415</v>
@@ -10042,7 +10044,7 @@
         <v>0</v>
       </c>
       <c r="N28" t="n">
-        <v>0</v>
+        <v>205.1467494379689</v>
       </c>
       <c r="O28" t="n">
         <v>423.9083325512944</v>
@@ -10051,7 +10053,7 @@
         <v>351.0170646165068</v>
       </c>
       <c r="Q28" t="n">
-        <v>169.8916917821538</v>
+        <v>0</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -10194,7 +10196,7 @@
         <v>424.2958575201044</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>358.9284720888814</v>
       </c>
       <c r="M30" t="n">
         <v>0</v>
@@ -10203,13 +10205,13 @@
         <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>358.9284720888814</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q30" t="n">
         <v>424.2958575201044</v>
-      </c>
-      <c r="Q30" t="n">
-        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>118.3563415094341</v>
@@ -10267,22 +10269,22 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>33.39342414375217</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K31" t="n">
         <v>277.5337924960966</v>
       </c>
       <c r="L31" t="n">
-        <v>0</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M31" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="N31" t="n">
         <v>0</v>
       </c>
       <c r="O31" t="n">
-        <v>423.9083325512944</v>
+        <v>371.7091627680287</v>
       </c>
       <c r="P31" t="n">
         <v>351.0170646165068</v>
@@ -10349,22 +10351,22 @@
         <v>424.2958575201043</v>
       </c>
       <c r="K32" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="L32" t="n">
+        <v>0</v>
+      </c>
+      <c r="M32" t="n">
+        <v>0</v>
+      </c>
+      <c r="N32" t="n">
+        <v>0</v>
+      </c>
+      <c r="O32" t="n">
         <v>236.2898988798406</v>
       </c>
-      <c r="M32" t="n">
-        <v>0</v>
-      </c>
-      <c r="N32" t="n">
-        <v>0</v>
-      </c>
-      <c r="O32" t="n">
-        <v>0</v>
-      </c>
       <c r="P32" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="Q32" t="n">
         <v>424.2958575201044</v>
@@ -10422,16 +10424,16 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K33" t="n">
+        <v>385.2554146752023</v>
+      </c>
+      <c r="L33" t="n">
         <v>424.2958575201044</v>
-      </c>
-      <c r="L33" t="n">
-        <v>358.9284720888814</v>
       </c>
       <c r="M33" t="n">
         <v>0</v>
@@ -10510,13 +10512,13 @@
         <v>277.5337924960966</v>
       </c>
       <c r="L34" t="n">
-        <v>422.4342240080415</v>
+        <v>0</v>
       </c>
       <c r="M34" t="n">
-        <v>0</v>
+        <v>369.8475292559658</v>
       </c>
       <c r="N34" t="n">
-        <v>371.7091627680287</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="O34" t="n">
         <v>0</v>
@@ -10583,7 +10585,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="K35" t="n">
         <v>0</v>
@@ -10595,10 +10597,10 @@
         <v>0</v>
       </c>
       <c r="N35" t="n">
+        <v>0</v>
+      </c>
+      <c r="O35" t="n">
         <v>236.2898988798406</v>
-      </c>
-      <c r="O35" t="n">
-        <v>424.2958575201043</v>
       </c>
       <c r="P35" t="n">
         <v>424.2958575201044</v>
@@ -10665,16 +10667,16 @@
         <v>327.836691885063</v>
       </c>
       <c r="K36" t="n">
-        <v>358.9284720888815</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>358.9284720888814</v>
       </c>
       <c r="M36" t="n">
         <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
         <v>0</v>
@@ -10741,28 +10743,28 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>87.45422743908067</v>
+        <v>0</v>
       </c>
       <c r="K37" t="n">
-        <v>277.5337924960966</v>
+        <v>0</v>
       </c>
       <c r="L37" t="n">
         <v>422.4342240080415</v>
       </c>
       <c r="M37" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="N37" t="n">
-        <v>0</v>
+        <v>409.401749030468</v>
       </c>
       <c r="O37" t="n">
-        <v>371.7091627680287</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P37" t="n">
-        <v>351.0170646165068</v>
+        <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>169.8916917821538</v>
+        <v>0</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -10820,28 +10822,28 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="K38" t="n">
+        <v>0</v>
+      </c>
+      <c r="L38" t="n">
+        <v>0</v>
+      </c>
+      <c r="M38" t="n">
+        <v>0</v>
+      </c>
+      <c r="N38" t="n">
+        <v>0</v>
+      </c>
+      <c r="O38" t="n">
         <v>236.2898988798406</v>
       </c>
-      <c r="L38" t="n">
-        <v>424.2958575201043</v>
-      </c>
-      <c r="M38" t="n">
+      <c r="P38" t="n">
         <v>424.2958575201044</v>
       </c>
-      <c r="N38" t="n">
+      <c r="Q38" t="n">
         <v>424.2958575201044</v>
-      </c>
-      <c r="O38" t="n">
-        <v>0</v>
-      </c>
-      <c r="P38" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q38" t="n">
-        <v>0</v>
       </c>
       <c r="R38" t="n">
         <v>170.8626916697543</v>
@@ -10905,7 +10907,7 @@
         <v>424.2958575201044</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>358.9284720888814</v>
       </c>
       <c r="M39" t="n">
         <v>0</v>
@@ -10917,7 +10919,7 @@
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>358.9284720888814</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
         <v>424.2958575201044</v>
@@ -10978,22 +10980,22 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>87.45422743908067</v>
+        <v>0</v>
       </c>
       <c r="K40" t="n">
-        <v>277.5337924960966</v>
+        <v>0</v>
       </c>
       <c r="L40" t="n">
-        <v>0</v>
+        <v>310.9272166398487</v>
       </c>
       <c r="M40" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="N40" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="O40" t="n">
-        <v>369.8475292559658</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P40" t="n">
         <v>351.0170646165068</v>
@@ -11060,22 +11062,22 @@
         <v>424.2958575201043</v>
       </c>
       <c r="K41" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="L41" t="n">
+        <v>0</v>
+      </c>
+      <c r="M41" t="n">
+        <v>0</v>
+      </c>
+      <c r="N41" t="n">
+        <v>0</v>
+      </c>
+      <c r="O41" t="n">
         <v>236.2898988798406</v>
       </c>
-      <c r="M41" t="n">
-        <v>0</v>
-      </c>
-      <c r="N41" t="n">
-        <v>0</v>
-      </c>
-      <c r="O41" t="n">
-        <v>0</v>
-      </c>
       <c r="P41" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="Q41" t="n">
         <v>424.2958575201044</v>
@@ -11133,16 +11135,16 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J42" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K42" t="n">
-        <v>424.2958575201043</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>358.9284720888814</v>
       </c>
       <c r="M42" t="n">
         <v>0</v>
@@ -11154,13 +11156,13 @@
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
         <v>424.2958575201044</v>
       </c>
       <c r="R42" t="n">
-        <v>79.31589866453214</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11221,7 +11223,7 @@
         <v>277.5337924960966</v>
       </c>
       <c r="L43" t="n">
-        <v>369.8475292559658</v>
+        <v>0</v>
       </c>
       <c r="M43" t="n">
         <v>424.2958575201044</v>
@@ -11230,7 +11232,7 @@
         <v>0</v>
       </c>
       <c r="O43" t="n">
-        <v>0</v>
+        <v>369.8475292559658</v>
       </c>
       <c r="P43" t="n">
         <v>351.0170646165068</v>
@@ -11294,10 +11296,10 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>236.2898988798406</v>
       </c>
       <c r="L44" t="n">
         <v>0</v>
@@ -11312,13 +11314,13 @@
         <v>0</v>
       </c>
       <c r="P44" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11370,16 +11372,16 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>358.9284720888814</v>
       </c>
       <c r="M45" t="n">
         <v>0</v>
@@ -11394,10 +11396,10 @@
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -11452,13 +11454,13 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K46" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L46" t="n">
-        <v>0</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M46" t="n">
         <v>0</v>
@@ -11467,13 +11469,13 @@
         <v>0</v>
       </c>
       <c r="O46" t="n">
-        <v>0</v>
+        <v>371.7091627680287</v>
       </c>
       <c r="P46" t="n">
-        <v>0</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q46" t="n">
-        <v>0</v>
+        <v>169.8916917821538</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
@@ -23969,7 +23971,7 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C20" t="n">
-        <v>313.8020474642964</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D20" t="n">
         <v>431.5506869772999</v>
@@ -23981,13 +23983,13 @@
         <v>423.5887552948843</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24017,7 +24019,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T20" t="n">
         <v>217.8665548556918</v>
@@ -24026,10 +24028,10 @@
         <v>256.6300796561533</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X20" t="n">
         <v>414.9510387864824</v>
@@ -24045,25 +24047,25 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0</v>
+        <v>120.0908620689655</v>
       </c>
       <c r="C21" t="n">
-        <v>0</v>
+        <v>105.3918965517241</v>
       </c>
       <c r="D21" t="n">
-        <v>0</v>
+        <v>94.13938596491228</v>
       </c>
       <c r="E21" t="n">
-        <v>0</v>
+        <v>93.17921052631581</v>
       </c>
       <c r="F21" t="n">
-        <v>0</v>
+        <v>82.55</v>
       </c>
       <c r="G21" t="n">
-        <v>0</v>
+        <v>84.53123883647795</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>41.31829566194965</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
@@ -24096,25 +24098,25 @@
         <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>0</v>
+        <v>62.82088317610075</v>
       </c>
       <c r="T21" t="n">
-        <v>0</v>
+        <v>128.8768572327044</v>
       </c>
       <c r="U21" t="n">
-        <v>0</v>
+        <v>174.5731815300314</v>
       </c>
       <c r="V21" t="n">
-        <v>0</v>
+        <v>197.1263427586206</v>
       </c>
       <c r="W21" t="n">
-        <v>0</v>
+        <v>183.4695267241379</v>
       </c>
       <c r="X21" t="n">
-        <v>0</v>
+        <v>153.3187614035088</v>
       </c>
       <c r="Y21" t="n">
-        <v>0</v>
+        <v>125.2209214285714</v>
       </c>
     </row>
     <row r="22">
@@ -24130,22 +24132,22 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G22" t="n">
         <v>163.9353622244306</v>
       </c>
       <c r="H22" t="n">
-        <v>108.8469778699112</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24178,22 +24180,22 @@
         <v>157.6489550149833</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U22" t="n">
         <v>275.6486707394257</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X22" t="n">
         <v>242.9378371199217</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="23">
@@ -24206,7 +24208,7 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C23" t="n">
-        <v>9.465190568306582</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D23" t="n">
         <v>431.5506869772999</v>
@@ -24215,16 +24217,16 @@
         <v>429.4369973932878</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G23" t="n">
-        <v>156.3857130829144</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -24254,25 +24256,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V23" t="n">
         <v>358.9907805655117</v>
       </c>
       <c r="W23" t="n">
-        <v>400.806900043077</v>
+        <v>256.9765435030661</v>
       </c>
       <c r="X23" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -24364,19 +24366,19 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C25" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>174.9399834978613</v>
+        <v>103.4269518949029</v>
       </c>
       <c r="G25" t="n">
-        <v>79.07636865564615</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H25" t="n">
         <v>138.5031525665292</v>
@@ -24409,13 +24411,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S25" t="n">
         <v>157.6489550149833</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -24430,7 +24432,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="26">
@@ -24449,10 +24451,10 @@
         <v>7.254829457195569</v>
       </c>
       <c r="E26" t="n">
-        <v>5.14113987318342</v>
+        <v>272.8766587200516</v>
       </c>
       <c r="F26" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
         <v>397.3838530629687</v>
@@ -24494,13 +24496,13 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T26" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>241.9010689179572</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W26" t="n">
         <v>400.806900043077</v>
@@ -24598,7 +24600,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
@@ -24610,10 +24612,10 @@
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>106.0122620221432</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -24646,28 +24648,28 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T28" t="n">
-        <v>228.728105485574</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W28" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>242.9378371199217</v>
       </c>
       <c r="Y28" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24680,10 +24682,10 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C29" t="n">
-        <v>44.93695682185125</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D29" t="n">
-        <v>7.254829457195569</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E29" t="n">
         <v>429.4369973932878</v>
@@ -24692,10 +24694,10 @@
         <v>423.5887552948843</v>
       </c>
       <c r="G29" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
         <v>0.4126214791313976</v>
@@ -24731,7 +24733,7 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U29" t="n">
         <v>0</v>
@@ -24740,7 +24742,7 @@
         <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>400.806900043077</v>
+        <v>53.44310247490591</v>
       </c>
       <c r="X29" t="n">
         <v>414.9510387864824</v>
@@ -24835,10 +24837,10 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
@@ -24847,16 +24849,16 @@
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>90.72262734568655</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24883,22 +24885,22 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>33.83389772753338</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>242.9378371199217</v>
@@ -24914,28 +24916,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C32" t="n">
-        <v>58.19459552378896</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D32" t="n">
-        <v>7.254829457195569</v>
+        <v>20.86697025761458</v>
       </c>
       <c r="E32" t="n">
-        <v>5.14113987318342</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F32" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
         <v>286.2388530112159</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -24980,7 +24982,7 @@
         <v>400.806900043077</v>
       </c>
       <c r="X32" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
         <v>404.2032624633431</v>
@@ -25072,19 +25074,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D34" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>74.55334590428785</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -25123,25 +25125,25 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>223.0786790109829</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="35">
@@ -25169,7 +25171,7 @@
         <v>397.3838530629687</v>
       </c>
       <c r="H35" t="n">
-        <v>286.2388530112159</v>
+        <v>130.3856165631998</v>
       </c>
       <c r="I35" t="n">
         <v>0.4126214791313976</v>
@@ -25202,13 +25204,13 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T35" t="n">
         <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>183.5921982861386</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V35" t="n">
         <v>358.9907805655117</v>
@@ -25312,7 +25314,7 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D37" t="n">
         <v>164.2192128704925</v>
@@ -25321,7 +25323,7 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G37" t="n">
         <v>163.9353622244306</v>
@@ -25357,16 +25359,16 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>21.20364308168184</v>
+        <v>19.26974202066723</v>
       </c>
       <c r="S37" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>243.4206519573293</v>
       </c>
       <c r="U37" t="n">
-        <v>186.1932218234704</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -25391,16 +25393,16 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C38" t="n">
-        <v>433.7610480884109</v>
+        <v>307.7967954509858</v>
       </c>
       <c r="D38" t="n">
-        <v>7.254829457195569</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E38" t="n">
-        <v>5.14113987318342</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G38" t="n">
         <v>397.3838530629687</v>
@@ -25409,7 +25411,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -25439,10 +25441,10 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
         <v>256.6300796561533</v>
@@ -25451,13 +25453,13 @@
         <v>358.9907805655117</v>
       </c>
       <c r="W38" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>40.93676673668585</v>
+        <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -25546,7 +25548,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>156.5154587825359</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
@@ -25597,25 +25599,25 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S40" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>243.4206519573293</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V40" t="n">
         <v>284.0859530482738</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X40" t="n">
-        <v>242.9378371199217</v>
+        <v>237.2929137874768</v>
       </c>
       <c r="Y40" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -25628,25 +25630,25 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C41" t="n">
-        <v>9.465190568306582</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D41" t="n">
         <v>431.5506869772999</v>
       </c>
       <c r="E41" t="n">
-        <v>429.4369973932878</v>
+        <v>219.423102108785</v>
       </c>
       <c r="F41" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25676,19 +25678,19 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U41" t="n">
         <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>22.45885777935422</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X41" t="n">
         <v>414.9510387864824</v>
@@ -25783,7 +25785,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
@@ -25792,16 +25794,16 @@
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>48.85481680757769</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>163.9353622244306</v>
       </c>
       <c r="H43" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>87.77334973307141</v>
@@ -25840,13 +25842,13 @@
         <v>243.4206519573293</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W43" t="n">
-        <v>269.3061403695714</v>
+        <v>254.8903421995461</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
@@ -25865,16 +25867,16 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C44" t="n">
-        <v>433.7610480884109</v>
+        <v>59.74677603861437</v>
       </c>
       <c r="D44" t="n">
-        <v>431.5506869772999</v>
+        <v>7.254829457195569</v>
       </c>
       <c r="E44" t="n">
-        <v>429.4369973932878</v>
+        <v>5.14113987318342</v>
       </c>
       <c r="F44" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
         <v>397.3838530629687</v>
@@ -25883,7 +25885,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I44" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25941,25 +25943,25 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>120.0908620689655</v>
+        <v>0</v>
       </c>
       <c r="C45" t="n">
-        <v>105.3918965517241</v>
+        <v>0</v>
       </c>
       <c r="D45" t="n">
-        <v>94.13938596491228</v>
+        <v>0</v>
       </c>
       <c r="E45" t="n">
-        <v>93.17921052631581</v>
+        <v>0</v>
       </c>
       <c r="F45" t="n">
-        <v>82.55</v>
+        <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>84.53123883647795</v>
+        <v>0</v>
       </c>
       <c r="H45" t="n">
-        <v>41.31829566194965</v>
+        <v>0</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
@@ -25992,25 +25994,25 @@
         <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>62.82088317610075</v>
+        <v>0</v>
       </c>
       <c r="T45" t="n">
-        <v>128.8768572327044</v>
+        <v>0</v>
       </c>
       <c r="U45" t="n">
-        <v>174.5731815300314</v>
+        <v>0</v>
       </c>
       <c r="V45" t="n">
-        <v>197.1263427586206</v>
+        <v>0</v>
       </c>
       <c r="W45" t="n">
-        <v>183.4695267241379</v>
+        <v>0</v>
       </c>
       <c r="X45" t="n">
-        <v>153.3187614035088</v>
+        <v>0</v>
       </c>
       <c r="Y45" t="n">
-        <v>125.2209214285714</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46">
@@ -26020,28 +26022,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>163.9353622244306</v>
       </c>
       <c r="H46" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26071,7 +26073,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S46" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>243.4206519573293</v>
@@ -26086,10 +26088,10 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X46" t="n">
-        <v>242.9378371199217</v>
+        <v>73.35755156304614</v>
       </c>
       <c r="Y46" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -26171,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>373237.3950286652</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>373237.3950286653</v>
+        <v>373237.3950286654</v>
       </c>
     </row>
     <row r="10">
@@ -26203,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>373237.3950286653</v>
+        <v>373237.3950286654</v>
       </c>
     </row>
     <row r="13">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>373237.3950286654</v>
+        <v>373237.3950286653</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>373237.3950286654</v>
       </c>
     </row>
   </sheetData>
@@ -26329,7 +26331,7 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>78131.51941534779</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>78131.51941534781</v>
@@ -26338,22 +26340,22 @@
         <v>78131.51941534779</v>
       </c>
       <c r="K2" t="n">
+        <v>78131.51941534776</v>
+      </c>
+      <c r="L2" t="n">
         <v>78131.51941534779</v>
-      </c>
-      <c r="L2" t="n">
-        <v>78131.51941534778</v>
       </c>
       <c r="M2" t="n">
         <v>78131.51941534779</v>
       </c>
       <c r="N2" t="n">
-        <v>78131.51941534779</v>
+        <v>78131.51941534776</v>
       </c>
       <c r="O2" t="n">
-        <v>78131.51941534779</v>
+        <v>78131.51941534778</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>78131.51941534781</v>
       </c>
     </row>
     <row r="3">
@@ -26381,10 +26383,10 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>114478.8410216418</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>112829.1787276037</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -26433,7 +26435,7 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>31028.66177247689</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>31028.66177247689</v>
@@ -26454,10 +26456,10 @@
         <v>31028.66177247689</v>
       </c>
       <c r="O4" t="n">
-        <v>31028.66177247689</v>
+        <v>31028.6617724769</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>31028.6617724769</v>
       </c>
     </row>
     <row r="5">
@@ -26485,7 +26487,7 @@
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>25797.18813722234</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>25797.18813722234</v>
@@ -26509,7 +26511,7 @@
         <v>25797.18813722234</v>
       </c>
       <c r="P5" t="n">
-        <v>0</v>
+        <v>25797.18813722234</v>
       </c>
     </row>
     <row r="6">
@@ -26537,31 +26539,31 @@
         <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>-93173.17151599328</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>21305.66950564857</v>
+        <v>-91523.50922195509</v>
       </c>
       <c r="J6" t="n">
         <v>21305.66950564855</v>
       </c>
       <c r="K6" t="n">
+        <v>21305.66950564853</v>
+      </c>
+      <c r="L6" t="n">
         <v>21305.66950564856</v>
-      </c>
-      <c r="L6" t="n">
-        <v>21305.66950564854</v>
       </c>
       <c r="M6" t="n">
         <v>21305.66950564856</v>
       </c>
       <c r="N6" t="n">
+        <v>21305.66950564853</v>
+      </c>
+      <c r="O6" t="n">
+        <v>21305.66950564853</v>
+      </c>
+      <c r="P6" t="n">
         <v>21305.66950564856</v>
-      </c>
-      <c r="O6" t="n">
-        <v>21305.66950564856</v>
-      </c>
-      <c r="P6" t="n">
-        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -26805,7 +26807,7 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>424.2958575201043</v>
@@ -26829,7 +26831,7 @@
         <v>424.2958575201043</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
     </row>
   </sheetData>
@@ -27027,10 +27029,10 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
+        <v>0</v>
+      </c>
+      <c r="I4" t="n">
         <v>424.2958575201043</v>
-      </c>
-      <c r="I4" t="n">
-        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27273,7 +27275,7 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -36118,7 +36120,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="K20" t="n">
         <v>0</v>
@@ -36133,16 +36135,16 @@
         <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>236.2898988798406</v>
+        <v>0</v>
       </c>
       <c r="P20" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>170.8626916697544</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36197,13 +36199,13 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>327.836691885063</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>385.2554146752024</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
         <v>0</v>
@@ -36218,10 +36220,10 @@
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>118.3563415094341</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36276,13 +36278,13 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>87.45422743908067</v>
+        <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>277.5337924960966</v>
+        <v>0</v>
       </c>
       <c r="L22" t="n">
-        <v>422.4342240080415</v>
+        <v>0</v>
       </c>
       <c r="M22" t="n">
         <v>0</v>
@@ -36291,13 +36293,13 @@
         <v>0</v>
       </c>
       <c r="O22" t="n">
-        <v>371.7091627680287</v>
+        <v>0</v>
       </c>
       <c r="P22" t="n">
-        <v>351.0170646165068</v>
+        <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>169.8916917821539</v>
+        <v>0</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36440,19 +36442,19 @@
         <v>424.2958575201044</v>
       </c>
       <c r="L24" t="n">
+        <v>0</v>
+      </c>
+      <c r="M24" t="n">
+        <v>0</v>
+      </c>
+      <c r="N24" t="n">
+        <v>0</v>
+      </c>
+      <c r="O24" t="n">
+        <v>0</v>
+      </c>
+      <c r="P24" t="n">
         <v>358.9284720888814</v>
-      </c>
-      <c r="M24" t="n">
-        <v>0</v>
-      </c>
-      <c r="N24" t="n">
-        <v>0</v>
-      </c>
-      <c r="O24" t="n">
-        <v>0</v>
-      </c>
-      <c r="P24" t="n">
-        <v>0</v>
       </c>
       <c r="Q24" t="n">
         <v>424.2958575201044</v>
@@ -36513,28 +36515,28 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>87.45422743908067</v>
+        <v>0</v>
       </c>
       <c r="K25" t="n">
-        <v>223.4729892007681</v>
+        <v>0</v>
       </c>
       <c r="L25" t="n">
-        <v>0</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M25" t="n">
-        <v>424.2958575201043</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="N25" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="O25" t="n">
-        <v>423.9083325512944</v>
+        <v>409.0142240616578</v>
       </c>
       <c r="P25" t="n">
-        <v>351.0170646165068</v>
+        <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>169.8916917821539</v>
+        <v>0</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36595,10 +36597,10 @@
         <v>424.2958575201043</v>
       </c>
       <c r="K26" t="n">
-        <v>0</v>
+        <v>407.152590549595</v>
       </c>
       <c r="L26" t="n">
-        <v>407.152590549595</v>
+        <v>0</v>
       </c>
       <c r="M26" t="n">
         <v>0</v>
@@ -36668,16 +36670,16 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>385.2554146752024</v>
       </c>
       <c r="M27" t="n">
         <v>0</v>
@@ -36686,10 +36688,10 @@
         <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>358.9284720888815</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>424.2958575201044</v>
@@ -36750,10 +36752,10 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>87.45422743908067</v>
+        <v>0</v>
       </c>
       <c r="K28" t="n">
-        <v>225.3346227128309</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L28" t="n">
         <v>422.4342240080415</v>
@@ -36762,7 +36764,7 @@
         <v>0</v>
       </c>
       <c r="N28" t="n">
-        <v>0</v>
+        <v>205.1467494379689</v>
       </c>
       <c r="O28" t="n">
         <v>423.9083325512944</v>
@@ -36771,7 +36773,7 @@
         <v>351.0170646165068</v>
       </c>
       <c r="Q28" t="n">
-        <v>169.8916917821539</v>
+        <v>0</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36914,7 +36916,7 @@
         <v>424.2958575201044</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>358.9284720888814</v>
       </c>
       <c r="M30" t="n">
         <v>0</v>
@@ -36923,13 +36925,13 @@
         <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>358.9284720888814</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q30" t="n">
         <v>424.2958575201044</v>
-      </c>
-      <c r="Q30" t="n">
-        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>118.3563415094341</v>
@@ -36987,22 +36989,22 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>33.39342414375217</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K31" t="n">
         <v>277.5337924960966</v>
       </c>
       <c r="L31" t="n">
-        <v>0</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M31" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="N31" t="n">
         <v>0</v>
       </c>
       <c r="O31" t="n">
-        <v>423.9083325512944</v>
+        <v>371.7091627680287</v>
       </c>
       <c r="P31" t="n">
         <v>351.0170646165068</v>
@@ -37069,22 +37071,22 @@
         <v>424.2958575201043</v>
       </c>
       <c r="K32" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="L32" t="n">
+        <v>0</v>
+      </c>
+      <c r="M32" t="n">
+        <v>0</v>
+      </c>
+      <c r="N32" t="n">
+        <v>0</v>
+      </c>
+      <c r="O32" t="n">
         <v>236.2898988798406</v>
       </c>
-      <c r="M32" t="n">
-        <v>0</v>
-      </c>
-      <c r="N32" t="n">
-        <v>0</v>
-      </c>
-      <c r="O32" t="n">
-        <v>0</v>
-      </c>
       <c r="P32" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="Q32" t="n">
         <v>424.2958575201044</v>
@@ -37142,16 +37144,16 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K33" t="n">
+        <v>385.2554146752023</v>
+      </c>
+      <c r="L33" t="n">
         <v>424.2958575201044</v>
-      </c>
-      <c r="L33" t="n">
-        <v>358.9284720888814</v>
       </c>
       <c r="M33" t="n">
         <v>0</v>
@@ -37230,13 +37232,13 @@
         <v>277.5337924960966</v>
       </c>
       <c r="L34" t="n">
-        <v>422.4342240080415</v>
+        <v>0</v>
       </c>
       <c r="M34" t="n">
-        <v>0</v>
+        <v>369.8475292559658</v>
       </c>
       <c r="N34" t="n">
-        <v>371.7091627680287</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="O34" t="n">
         <v>0</v>
@@ -37303,7 +37305,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="K35" t="n">
         <v>0</v>
@@ -37315,10 +37317,10 @@
         <v>0</v>
       </c>
       <c r="N35" t="n">
+        <v>0</v>
+      </c>
+      <c r="O35" t="n">
         <v>236.2898988798406</v>
-      </c>
-      <c r="O35" t="n">
-        <v>424.2958575201043</v>
       </c>
       <c r="P35" t="n">
         <v>424.2958575201044</v>
@@ -37385,16 +37387,16 @@
         <v>327.836691885063</v>
       </c>
       <c r="K36" t="n">
-        <v>358.9284720888815</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>358.9284720888814</v>
       </c>
       <c r="M36" t="n">
         <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
         <v>0</v>
@@ -37461,28 +37463,28 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>87.45422743908067</v>
+        <v>0</v>
       </c>
       <c r="K37" t="n">
-        <v>277.5337924960966</v>
+        <v>0</v>
       </c>
       <c r="L37" t="n">
         <v>422.4342240080415</v>
       </c>
       <c r="M37" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="N37" t="n">
-        <v>0</v>
+        <v>409.401749030468</v>
       </c>
       <c r="O37" t="n">
-        <v>371.7091627680287</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P37" t="n">
-        <v>351.0170646165068</v>
+        <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>169.8916917821539</v>
+        <v>0</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37540,28 +37542,28 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="K38" t="n">
+        <v>0</v>
+      </c>
+      <c r="L38" t="n">
+        <v>0</v>
+      </c>
+      <c r="M38" t="n">
+        <v>0</v>
+      </c>
+      <c r="N38" t="n">
+        <v>0</v>
+      </c>
+      <c r="O38" t="n">
         <v>236.2898988798406</v>
       </c>
-      <c r="L38" t="n">
-        <v>424.2958575201043</v>
-      </c>
-      <c r="M38" t="n">
+      <c r="P38" t="n">
         <v>424.2958575201044</v>
       </c>
-      <c r="N38" t="n">
+      <c r="Q38" t="n">
         <v>424.2958575201044</v>
-      </c>
-      <c r="O38" t="n">
-        <v>0</v>
-      </c>
-      <c r="P38" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q38" t="n">
-        <v>0</v>
       </c>
       <c r="R38" t="n">
         <v>170.8626916697544</v>
@@ -37625,7 +37627,7 @@
         <v>424.2958575201044</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>358.9284720888814</v>
       </c>
       <c r="M39" t="n">
         <v>0</v>
@@ -37637,7 +37639,7 @@
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>358.9284720888814</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
         <v>424.2958575201044</v>
@@ -37698,22 +37700,22 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>87.45422743908067</v>
+        <v>0</v>
       </c>
       <c r="K40" t="n">
-        <v>277.5337924960966</v>
+        <v>0</v>
       </c>
       <c r="L40" t="n">
-        <v>0</v>
+        <v>310.9272166398487</v>
       </c>
       <c r="M40" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="N40" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="O40" t="n">
-        <v>369.8475292559658</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P40" t="n">
         <v>351.0170646165068</v>
@@ -37780,22 +37782,22 @@
         <v>424.2958575201043</v>
       </c>
       <c r="K41" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="L41" t="n">
+        <v>0</v>
+      </c>
+      <c r="M41" t="n">
+        <v>0</v>
+      </c>
+      <c r="N41" t="n">
+        <v>0</v>
+      </c>
+      <c r="O41" t="n">
         <v>236.2898988798406</v>
       </c>
-      <c r="M41" t="n">
-        <v>0</v>
-      </c>
-      <c r="N41" t="n">
-        <v>0</v>
-      </c>
-      <c r="O41" t="n">
-        <v>0</v>
-      </c>
       <c r="P41" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="Q41" t="n">
         <v>424.2958575201044</v>
@@ -37853,16 +37855,16 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J42" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K42" t="n">
-        <v>424.2958575201043</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>358.9284720888814</v>
       </c>
       <c r="M42" t="n">
         <v>0</v>
@@ -37874,13 +37876,13 @@
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
         <v>424.2958575201044</v>
       </c>
       <c r="R42" t="n">
-        <v>79.31589866453214</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37941,7 +37943,7 @@
         <v>277.5337924960966</v>
       </c>
       <c r="L43" t="n">
-        <v>369.8475292559658</v>
+        <v>0</v>
       </c>
       <c r="M43" t="n">
         <v>424.2958575201044</v>
@@ -37950,7 +37952,7 @@
         <v>0</v>
       </c>
       <c r="O43" t="n">
-        <v>0</v>
+        <v>369.8475292559658</v>
       </c>
       <c r="P43" t="n">
         <v>351.0170646165068</v>
@@ -38014,10 +38016,10 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>236.2898988798406</v>
       </c>
       <c r="L44" t="n">
         <v>0</v>
@@ -38032,13 +38034,13 @@
         <v>0</v>
       </c>
       <c r="P44" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>170.8626916697544</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38090,16 +38092,16 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>358.9284720888814</v>
       </c>
       <c r="M45" t="n">
         <v>0</v>
@@ -38114,10 +38116,10 @@
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38172,13 +38174,13 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K46" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L46" t="n">
-        <v>0</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M46" t="n">
         <v>0</v>
@@ -38187,13 +38189,13 @@
         <v>0</v>
       </c>
       <c r="O46" t="n">
-        <v>0</v>
+        <v>371.7091627680287</v>
       </c>
       <c r="P46" t="n">
-        <v>0</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q46" t="n">
-        <v>0</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>

--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_5_13.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_5_13.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-85728.29621532506</v>
+        <v>-95132.83617809317</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>15297430.99340741</v>
+        <v>15297430.9934074</v>
       </c>
     </row>
     <row r="9">
@@ -2329,7 +2329,7 @@
         <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>4.8657681569127</v>
       </c>
       <c r="G23" t="n">
         <v>397.3838530629687</v>
@@ -2368,25 +2368,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>143.8303565400109</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X23" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -2414,7 +2414,7 @@
         <v>84.53123883647795</v>
       </c>
       <c r="H24" t="n">
-        <v>41.31829566194966</v>
+        <v>41.31829566194965</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
@@ -2475,7 +2475,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C25" t="n">
         <v>170.8360944016073</v>
@@ -2487,7 +2487,7 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F25" t="n">
-        <v>71.51303160295848</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -2526,25 +2526,25 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>152.9189507365545</v>
       </c>
       <c r="U25" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>242.9378371199217</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="26">
@@ -2563,10 +2563,10 @@
         <v>424.2958575201043</v>
       </c>
       <c r="E26" t="n">
-        <v>156.5603386732361</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="F26" t="n">
-        <v>423.5887552948843</v>
+        <v>373.7197913037078</v>
       </c>
       <c r="G26" t="n">
         <v>0</v>
@@ -2608,7 +2608,7 @@
         <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
         <v>0</v>
@@ -2718,7 +2718,7 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D28" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>168.0604237117701</v>
@@ -2727,13 +2727,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G28" t="n">
-        <v>57.9231002022874</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H28" t="n">
         <v>138.5031525665292</v>
       </c>
       <c r="I28" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2775,10 +2775,10 @@
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>269.3061403695714</v>
+        <v>172.3486038310704</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y28" t="n">
         <v>225.1454739790328</v>
@@ -2791,25 +2791,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>403.598180726109</v>
       </c>
       <c r="E29" t="n">
         <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G29" t="n">
         <v>397.3838530629687</v>
       </c>
       <c r="H29" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2848,13 +2848,13 @@
         <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>347.3637975681711</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
         <v>0</v>
@@ -2949,7 +2949,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
@@ -2961,13 +2961,13 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F31" t="n">
-        <v>84.21735615217479</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -3006,19 +3006,19 @@
         <v>243.4206519573293</v>
       </c>
       <c r="U31" t="n">
-        <v>275.6486707394257</v>
+        <v>20.83371550979437</v>
       </c>
       <c r="V31" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="32">
@@ -3031,22 +3031,22 @@
         <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="D32" t="n">
-        <v>410.6837167196853</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
         <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3079,22 +3079,22 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W32" t="n">
-        <v>0</v>
+        <v>19.76988317734234</v>
       </c>
       <c r="X32" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
         <v>0</v>
@@ -3192,19 +3192,19 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>164.2192128704925</v>
+        <v>55.1440237821198</v>
       </c>
       <c r="E34" t="n">
-        <v>93.50707780748226</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G34" t="n">
         <v>163.9353622244306</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3234,7 +3234,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>157.6489550149833</v>
@@ -3246,13 +3246,13 @@
         <v>275.6486707394257</v>
       </c>
       <c r="V34" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X34" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -3268,22 +3268,22 @@
         <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H35" t="n">
-        <v>155.8532364480161</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3322,7 +3322,7 @@
         <v>217.8665548556918</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -3331,10 +3331,10 @@
         <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>0</v>
+        <v>84.28476081464817</v>
       </c>
       <c r="Y35" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="36">
@@ -3423,7 +3423,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>189.9004325317972</v>
+        <v>58.06914951725022</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
@@ -3438,10 +3438,10 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3471,16 +3471,16 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>1.933901061014605</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S37" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U37" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>284.0859530482738</v>
@@ -3505,10 +3505,10 @@
         <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>125.9642526374251</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>267.6156636911013</v>
       </c>
       <c r="E38" t="n">
         <v>0</v>
@@ -3517,7 +3517,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -3559,19 +3559,19 @@
         <v>217.8665548556918</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -3660,7 +3660,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
         <v>170.8360944016073</v>
@@ -3672,7 +3672,7 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F40" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>163.9353622244306</v>
@@ -3681,7 +3681,7 @@
         <v>138.5031525665292</v>
       </c>
       <c r="I40" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3714,7 +3714,7 @@
         <v>157.6489550149833</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -3723,13 +3723,13 @@
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X40" t="n">
-        <v>5.64492333244486</v>
+        <v>170.6773707473072</v>
       </c>
       <c r="Y40" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -3742,19 +3742,19 @@
         <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="E41" t="n">
-        <v>210.0138952845027</v>
+        <v>175.9458315047774</v>
       </c>
       <c r="F41" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -3793,13 +3793,13 @@
         <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U41" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
         <v>0</v>
@@ -3808,7 +3808,7 @@
         <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="42">
@@ -3897,13 +3897,13 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>164.2192128704925</v>
+        <v>164.0062509581192</v>
       </c>
       <c r="E43" t="n">
         <v>168.0604237117701</v>
@@ -3912,10 +3912,10 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H43" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3945,28 +3945,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S43" t="n">
         <v>157.6489550149833</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W43" t="n">
-        <v>14.41579817002531</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X43" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -3979,25 +3979,25 @@
         <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>374.0142720497965</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="D44" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
         <v>424.2958575201043</v>
       </c>
       <c r="F44" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
         <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I44" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4027,13 +4027,13 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>37.28016130075125</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -4152,10 +4152,10 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4188,22 +4188,22 @@
         <v>157.6489550149833</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>101.932939138754</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>169.5802855568755</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -5965,16 +5965,16 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>724.4716545351282</v>
+        <v>729.3865718653431</v>
       </c>
       <c r="C23" t="n">
-        <v>724.4716545351282</v>
+        <v>729.3865718653431</v>
       </c>
       <c r="D23" t="n">
-        <v>724.4716545351282</v>
+        <v>729.3865718653431</v>
       </c>
       <c r="E23" t="n">
-        <v>724.4716545351282</v>
+        <v>729.3865718653431</v>
       </c>
       <c r="F23" t="n">
         <v>724.4716545351282</v>
@@ -5992,19 +5992,19 @@
         <v>453.9965675465116</v>
       </c>
       <c r="K23" t="n">
-        <v>453.9965675465116</v>
+        <v>874.0494664914149</v>
       </c>
       <c r="L23" t="n">
-        <v>453.9965675465116</v>
+        <v>1107.976466382457</v>
       </c>
       <c r="M23" t="n">
-        <v>453.9965675465116</v>
+        <v>1107.976466382457</v>
       </c>
       <c r="N23" t="n">
-        <v>453.9965675465116</v>
+        <v>1107.976466382457</v>
       </c>
       <c r="O23" t="n">
-        <v>687.9235674375537</v>
+        <v>1107.976466382457</v>
       </c>
       <c r="P23" t="n">
         <v>1107.976466382457</v>
@@ -6016,25 +6016,25 @@
         <v>1697.183430080417</v>
       </c>
       <c r="S23" t="n">
-        <v>1697.183430080417</v>
+        <v>1613.531556264254</v>
       </c>
       <c r="T23" t="n">
-        <v>1697.183430080417</v>
+        <v>1393.464329137293</v>
       </c>
       <c r="U23" t="n">
-        <v>1697.183430080417</v>
+        <v>1134.24202645431</v>
       </c>
       <c r="V23" t="n">
-        <v>1697.183430080417</v>
+        <v>1134.24202645431</v>
       </c>
       <c r="W23" t="n">
-        <v>1551.900241656164</v>
+        <v>729.3865718653431</v>
       </c>
       <c r="X23" t="n">
-        <v>1132.757778235475</v>
+        <v>729.3865718653431</v>
       </c>
       <c r="Y23" t="n">
-        <v>724.4716545351282</v>
+        <v>729.3865718653431</v>
       </c>
     </row>
     <row r="24">
@@ -6047,7 +6047,7 @@
         <v>540.1154135929012</v>
       </c>
       <c r="C24" t="n">
-        <v>433.6589524295434</v>
+        <v>433.6589524295435</v>
       </c>
       <c r="D24" t="n">
         <v>338.5686635760967</v>
@@ -6056,10 +6056,10 @@
         <v>244.4482489030504</v>
       </c>
       <c r="F24" t="n">
-        <v>161.064410519212</v>
+        <v>161.0644105192121</v>
       </c>
       <c r="G24" t="n">
-        <v>75.67932078539589</v>
+        <v>75.67932078539593</v>
       </c>
       <c r="H24" t="n">
         <v>33.94366860160834</v>
@@ -6074,16 +6074,16 @@
         <v>804.6185656731816</v>
       </c>
       <c r="L24" t="n">
-        <v>804.6185656731816</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="M24" t="n">
-        <v>804.6185656731816</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="N24" t="n">
-        <v>804.6185656731816</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="O24" t="n">
-        <v>804.6185656731816</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="P24" t="n">
         <v>1159.957753041174</v>
@@ -6123,16 +6123,16 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>614.3767621236573</v>
+        <v>718.8484307043673</v>
       </c>
       <c r="C25" t="n">
-        <v>441.8150506068822</v>
+        <v>546.2867191875922</v>
       </c>
       <c r="D25" t="n">
-        <v>275.9370578084049</v>
+        <v>380.4087263891149</v>
       </c>
       <c r="E25" t="n">
-        <v>106.1790540591422</v>
+        <v>210.6507226398521</v>
       </c>
       <c r="F25" t="n">
         <v>33.94366860160834</v>
@@ -6147,25 +6147,25 @@
         <v>33.94366860160834</v>
       </c>
       <c r="J25" t="n">
-        <v>33.94366860160834</v>
+        <v>120.5233537662982</v>
       </c>
       <c r="K25" t="n">
-        <v>33.94366860160834</v>
+        <v>395.2818083374338</v>
       </c>
       <c r="L25" t="n">
-        <v>452.1535503695694</v>
+        <v>813.4916901053949</v>
       </c>
       <c r="M25" t="n">
-        <v>872.2064493144727</v>
+        <v>813.4916901053949</v>
       </c>
       <c r="N25" t="n">
-        <v>1292.259348259376</v>
+        <v>813.4916901053949</v>
       </c>
       <c r="O25" t="n">
-        <v>1697.183430080417</v>
+        <v>1181.483761245743</v>
       </c>
       <c r="P25" t="n">
-        <v>1697.183430080417</v>
+        <v>1528.990655216085</v>
       </c>
       <c r="Q25" t="n">
         <v>1697.183430080417</v>
@@ -6174,25 +6174,25 @@
         <v>1697.183430080417</v>
       </c>
       <c r="S25" t="n">
-        <v>1697.183430080417</v>
+        <v>1537.942061378414</v>
       </c>
       <c r="T25" t="n">
-        <v>1697.183430080417</v>
+        <v>1383.478474775834</v>
       </c>
       <c r="U25" t="n">
-        <v>1418.750429333523</v>
+        <v>1383.478474775834</v>
       </c>
       <c r="V25" t="n">
-        <v>1131.794921203953</v>
+        <v>1383.478474775834</v>
       </c>
       <c r="W25" t="n">
-        <v>859.7685167902448</v>
+        <v>1383.478474775834</v>
       </c>
       <c r="X25" t="n">
-        <v>614.3767621236573</v>
+        <v>1138.086720109246</v>
       </c>
       <c r="Y25" t="n">
-        <v>614.3767621236573</v>
+        <v>910.6670494233545</v>
       </c>
     </row>
     <row r="26">
@@ -6202,16 +6202,16 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1477.116202953456</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="C26" t="n">
-        <v>1048.534528690724</v>
+        <v>1268.601755817686</v>
       </c>
       <c r="D26" t="n">
-        <v>619.9528544279926</v>
+        <v>840.020081554954</v>
       </c>
       <c r="E26" t="n">
-        <v>461.8110981924006</v>
+        <v>411.4384072922223</v>
       </c>
       <c r="F26" t="n">
         <v>33.94366860160834</v>
@@ -6229,25 +6229,25 @@
         <v>453.9965675465116</v>
       </c>
       <c r="K26" t="n">
-        <v>857.0776321906106</v>
+        <v>453.9965675465116</v>
       </c>
       <c r="L26" t="n">
-        <v>857.0776321906106</v>
+        <v>453.9965675465116</v>
       </c>
       <c r="M26" t="n">
-        <v>857.0776321906106</v>
+        <v>453.9965675465116</v>
       </c>
       <c r="N26" t="n">
-        <v>857.0776321906106</v>
+        <v>453.9965675465116</v>
       </c>
       <c r="O26" t="n">
-        <v>857.0776321906106</v>
+        <v>687.9235674375537</v>
       </c>
       <c r="P26" t="n">
-        <v>1277.130531135514</v>
+        <v>1107.976466382457</v>
       </c>
       <c r="Q26" t="n">
-        <v>1697.183430080417</v>
+        <v>1528.02936532736</v>
       </c>
       <c r="R26" t="n">
         <v>1697.183430080417</v>
@@ -6256,22 +6256,22 @@
         <v>1697.183430080417</v>
       </c>
       <c r="T26" t="n">
-        <v>1477.116202953456</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="U26" t="n">
-        <v>1477.116202953456</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="V26" t="n">
-        <v>1477.116202953456</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="W26" t="n">
-        <v>1477.116202953456</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="X26" t="n">
-        <v>1477.116202953456</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="Y26" t="n">
-        <v>1477.116202953456</v>
+        <v>1697.183430080417</v>
       </c>
     </row>
     <row r="27">
@@ -6284,7 +6284,7 @@
         <v>540.1154135929012</v>
       </c>
       <c r="C27" t="n">
-        <v>433.6589524295434</v>
+        <v>433.6589524295435</v>
       </c>
       <c r="D27" t="n">
         <v>338.5686635760967</v>
@@ -6293,34 +6293,34 @@
         <v>244.4482489030504</v>
       </c>
       <c r="F27" t="n">
-        <v>161.064410519212</v>
+        <v>161.0644105192121</v>
       </c>
       <c r="G27" t="n">
-        <v>75.67932078539587</v>
+        <v>75.67932078539593</v>
       </c>
       <c r="H27" t="n">
         <v>33.94366860160834</v>
       </c>
       <c r="I27" t="n">
-        <v>33.94366860160834</v>
+        <v>60.00734176206595</v>
       </c>
       <c r="J27" t="n">
-        <v>358.5019935678207</v>
+        <v>384.5656667282782</v>
       </c>
       <c r="K27" t="n">
-        <v>778.554892512724</v>
+        <v>804.6185656731816</v>
       </c>
       <c r="L27" t="n">
-        <v>1159.957753041174</v>
+        <v>804.6185656731816</v>
       </c>
       <c r="M27" t="n">
-        <v>1159.957753041174</v>
+        <v>804.6185656731816</v>
       </c>
       <c r="N27" t="n">
-        <v>1159.957753041174</v>
+        <v>804.6185656731816</v>
       </c>
       <c r="O27" t="n">
-        <v>1159.957753041174</v>
+        <v>804.6185656731816</v>
       </c>
       <c r="P27" t="n">
         <v>1159.957753041174</v>
@@ -6360,49 +6360,49 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1005.91873626183</v>
+        <v>858.4638871896879</v>
       </c>
       <c r="C28" t="n">
-        <v>833.3570247450549</v>
+        <v>685.9021756729128</v>
       </c>
       <c r="D28" t="n">
-        <v>667.4790319465776</v>
+        <v>685.9021756729128</v>
       </c>
       <c r="E28" t="n">
-        <v>497.7210281973149</v>
+        <v>516.14417192365</v>
       </c>
       <c r="F28" t="n">
-        <v>321.013974159071</v>
+        <v>339.4371178854062</v>
       </c>
       <c r="G28" t="n">
-        <v>262.5057921365585</v>
+        <v>173.8458429112338</v>
       </c>
       <c r="H28" t="n">
-        <v>122.603617826933</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="I28" t="n">
         <v>33.94366860160834</v>
       </c>
       <c r="J28" t="n">
-        <v>33.94366860160834</v>
+        <v>120.5233537662982</v>
       </c>
       <c r="K28" t="n">
-        <v>308.7021231727439</v>
+        <v>395.2818083374338</v>
       </c>
       <c r="L28" t="n">
-        <v>726.9120049407049</v>
+        <v>813.4916901053949</v>
       </c>
       <c r="M28" t="n">
-        <v>726.9120049407049</v>
+        <v>813.4916901053949</v>
       </c>
       <c r="N28" t="n">
-        <v>930.0072868842942</v>
+        <v>813.4916901053949</v>
       </c>
       <c r="O28" t="n">
-        <v>1349.676536110076</v>
+        <v>1181.483761245743</v>
       </c>
       <c r="P28" t="n">
-        <v>1697.183430080417</v>
+        <v>1528.990655216085</v>
       </c>
       <c r="Q28" t="n">
         <v>1697.183430080417</v>
@@ -6423,13 +6423,13 @@
         <v>1697.183430080417</v>
       </c>
       <c r="W28" t="n">
-        <v>1425.157025666709</v>
+        <v>1523.093931261154</v>
       </c>
       <c r="X28" t="n">
-        <v>1425.157025666709</v>
+        <v>1277.702176594567</v>
       </c>
       <c r="Y28" t="n">
-        <v>1197.737354980817</v>
+        <v>1050.282505908675</v>
       </c>
     </row>
     <row r="29">
@@ -6439,22 +6439,22 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>724.4716545351282</v>
+        <v>1270.883859595509</v>
       </c>
       <c r="C29" t="n">
-        <v>724.4716545351282</v>
+        <v>1270.883859595509</v>
       </c>
       <c r="D29" t="n">
-        <v>724.4716545351282</v>
+        <v>863.2089295691367</v>
       </c>
       <c r="E29" t="n">
-        <v>724.4716545351282</v>
+        <v>863.2089295691367</v>
       </c>
       <c r="F29" t="n">
-        <v>724.4716545351282</v>
+        <v>435.3414999783445</v>
       </c>
       <c r="G29" t="n">
-        <v>323.0738231583921</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="H29" t="n">
         <v>33.94366860160834</v>
@@ -6496,19 +6496,19 @@
         <v>1697.183430080417</v>
       </c>
       <c r="U29" t="n">
-        <v>1437.961127397434</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="V29" t="n">
-        <v>1075.344177331261</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="W29" t="n">
-        <v>724.4716545351282</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="X29" t="n">
-        <v>724.4716545351282</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="Y29" t="n">
-        <v>724.4716545351282</v>
+        <v>1697.183430080417</v>
       </c>
     </row>
     <row r="30">
@@ -6521,7 +6521,7 @@
         <v>540.1154135929012</v>
       </c>
       <c r="C30" t="n">
-        <v>433.6589524295434</v>
+        <v>433.6589524295435</v>
       </c>
       <c r="D30" t="n">
         <v>338.5686635760967</v>
@@ -6530,10 +6530,10 @@
         <v>244.4482489030504</v>
       </c>
       <c r="F30" t="n">
-        <v>161.064410519212</v>
+        <v>161.0644105192121</v>
       </c>
       <c r="G30" t="n">
-        <v>75.67932078539587</v>
+        <v>75.67932078539593</v>
       </c>
       <c r="H30" t="n">
         <v>33.94366860160834</v>
@@ -6597,22 +6597,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>454.6477016666967</v>
+        <v>851.7801684713901</v>
       </c>
       <c r="C31" t="n">
-        <v>454.6477016666967</v>
+        <v>851.7801684713901</v>
       </c>
       <c r="D31" t="n">
-        <v>288.7697088682194</v>
+        <v>685.9021756729128</v>
       </c>
       <c r="E31" t="n">
-        <v>119.0117051189566</v>
+        <v>516.14417192365</v>
       </c>
       <c r="F31" t="n">
-        <v>33.94366860160834</v>
+        <v>339.4371178854062</v>
       </c>
       <c r="G31" t="n">
-        <v>33.94366860160834</v>
+        <v>173.8458429112338</v>
       </c>
       <c r="H31" t="n">
         <v>33.94366860160834</v>
@@ -6621,19 +6621,19 @@
         <v>33.94366860160834</v>
       </c>
       <c r="J31" t="n">
-        <v>120.5233537662982</v>
+        <v>68.8461756808652</v>
       </c>
       <c r="K31" t="n">
-        <v>395.2818083374338</v>
+        <v>343.6046302520008</v>
       </c>
       <c r="L31" t="n">
-        <v>813.4916901053949</v>
+        <v>761.8145120199619</v>
       </c>
       <c r="M31" t="n">
-        <v>813.4916901053949</v>
+        <v>761.8145120199619</v>
       </c>
       <c r="N31" t="n">
-        <v>813.4916901053949</v>
+        <v>761.8145120199619</v>
       </c>
       <c r="O31" t="n">
         <v>1181.483761245743</v>
@@ -6654,19 +6654,19 @@
         <v>1292.062614956869</v>
       </c>
       <c r="U31" t="n">
-        <v>1013.629614209975</v>
+        <v>1271.018457876269</v>
       </c>
       <c r="V31" t="n">
-        <v>726.6741060804052</v>
+        <v>1271.018457876269</v>
       </c>
       <c r="W31" t="n">
-        <v>454.6477016666967</v>
+        <v>1271.018457876269</v>
       </c>
       <c r="X31" t="n">
-        <v>454.6477016666967</v>
+        <v>1271.018457876269</v>
       </c>
       <c r="Y31" t="n">
-        <v>454.6477016666967</v>
+        <v>1043.598787190377</v>
       </c>
     </row>
     <row r="32">
@@ -6676,22 +6676,22 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1278.040966659728</v>
+        <v>751.6554974211238</v>
       </c>
       <c r="C32" t="n">
-        <v>1278.040966659728</v>
+        <v>323.0738231583921</v>
       </c>
       <c r="D32" t="n">
-        <v>863.2089295691367</v>
+        <v>323.0738231583921</v>
       </c>
       <c r="E32" t="n">
-        <v>863.2089295691367</v>
+        <v>323.0738231583921</v>
       </c>
       <c r="F32" t="n">
-        <v>435.3414999783445</v>
+        <v>323.0738231583921</v>
       </c>
       <c r="G32" t="n">
-        <v>33.94366860160834</v>
+        <v>323.0738231583921</v>
       </c>
       <c r="H32" t="n">
         <v>33.94366860160834</v>
@@ -6700,19 +6700,19 @@
         <v>33.94366860160834</v>
       </c>
       <c r="J32" t="n">
-        <v>453.9965675465116</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="K32" t="n">
-        <v>453.9965675465116</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="L32" t="n">
-        <v>453.9965675465116</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="M32" t="n">
-        <v>453.9965675465116</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="N32" t="n">
-        <v>453.9965675465116</v>
+        <v>267.8706684926505</v>
       </c>
       <c r="O32" t="n">
         <v>687.9235674375537</v>
@@ -6727,25 +6727,25 @@
         <v>1697.183430080417</v>
       </c>
       <c r="S32" t="n">
-        <v>1697.183430080417</v>
+        <v>1613.531556264254</v>
       </c>
       <c r="T32" t="n">
-        <v>1697.183430080417</v>
+        <v>1393.464329137293</v>
       </c>
       <c r="U32" t="n">
-        <v>1697.183430080417</v>
+        <v>1134.24202645431</v>
       </c>
       <c r="V32" t="n">
-        <v>1697.183430080417</v>
+        <v>771.6250763881362</v>
       </c>
       <c r="W32" t="n">
-        <v>1697.183430080417</v>
+        <v>751.6554974211238</v>
       </c>
       <c r="X32" t="n">
-        <v>1278.040966659728</v>
+        <v>751.6554974211238</v>
       </c>
       <c r="Y32" t="n">
-        <v>1278.040966659728</v>
+        <v>751.6554974211238</v>
       </c>
     </row>
     <row r="33">
@@ -6758,7 +6758,7 @@
         <v>540.1154135929012</v>
       </c>
       <c r="C33" t="n">
-        <v>433.6589524295434</v>
+        <v>433.6589524295435</v>
       </c>
       <c r="D33" t="n">
         <v>338.5686635760967</v>
@@ -6767,22 +6767,22 @@
         <v>244.4482489030504</v>
       </c>
       <c r="F33" t="n">
-        <v>161.064410519212</v>
+        <v>161.0644105192121</v>
       </c>
       <c r="G33" t="n">
-        <v>75.67932078539587</v>
+        <v>75.67932078539593</v>
       </c>
       <c r="H33" t="n">
         <v>33.94366860160834</v>
       </c>
       <c r="I33" t="n">
-        <v>33.94366860160834</v>
+        <v>60.00734176206595</v>
       </c>
       <c r="J33" t="n">
-        <v>358.5019935678207</v>
+        <v>384.5656667282782</v>
       </c>
       <c r="K33" t="n">
-        <v>739.9048540962709</v>
+        <v>804.6185656731816</v>
       </c>
       <c r="L33" t="n">
         <v>1159.957753041174</v>
@@ -6797,7 +6797,7 @@
         <v>1159.957753041174</v>
       </c>
       <c r="P33" t="n">
-        <v>1580.010651986078</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="Q33" t="n">
         <v>1580.010651986078</v>
@@ -6834,22 +6834,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>459.8645301191896</v>
+        <v>741.6032097962661</v>
       </c>
       <c r="C34" t="n">
-        <v>459.8645301191896</v>
+        <v>741.6032097962661</v>
       </c>
       <c r="D34" t="n">
-        <v>293.9865373207123</v>
+        <v>685.9021756729128</v>
       </c>
       <c r="E34" t="n">
-        <v>199.5349435757807</v>
+        <v>516.14417192365</v>
       </c>
       <c r="F34" t="n">
-        <v>199.5349435757807</v>
+        <v>339.4371178854062</v>
       </c>
       <c r="G34" t="n">
-        <v>33.94366860160834</v>
+        <v>173.8458429112338</v>
       </c>
       <c r="H34" t="n">
         <v>33.94366860160834</v>
@@ -6864,10 +6864,10 @@
         <v>395.2818083374338</v>
       </c>
       <c r="L34" t="n">
-        <v>395.2818083374338</v>
+        <v>813.4916901053949</v>
       </c>
       <c r="M34" t="n">
-        <v>761.43086230084</v>
+        <v>1181.483761245743</v>
       </c>
       <c r="N34" t="n">
         <v>1181.483761245743</v>
@@ -6882,28 +6882,28 @@
         <v>1697.183430080417</v>
       </c>
       <c r="R34" t="n">
-        <v>1675.765608785789</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="S34" t="n">
-        <v>1516.524240083786</v>
+        <v>1537.942061378414</v>
       </c>
       <c r="T34" t="n">
-        <v>1270.644793662241</v>
+        <v>1292.062614956869</v>
       </c>
       <c r="U34" t="n">
-        <v>992.2117929153466</v>
+        <v>1013.629614209975</v>
       </c>
       <c r="V34" t="n">
-        <v>705.2562847857771</v>
+        <v>1013.629614209975</v>
       </c>
       <c r="W34" t="n">
-        <v>705.2562847857771</v>
+        <v>741.6032097962661</v>
       </c>
       <c r="X34" t="n">
-        <v>459.8645301191896</v>
+        <v>741.6032097962661</v>
       </c>
       <c r="Y34" t="n">
-        <v>459.8645301191896</v>
+        <v>741.6032097962661</v>
       </c>
     </row>
     <row r="35">
@@ -6913,22 +6913,22 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1477.116202953456</v>
+        <v>724.4716545351282</v>
       </c>
       <c r="C35" t="n">
-        <v>1048.534528690724</v>
+        <v>724.4716545351282</v>
       </c>
       <c r="D35" t="n">
-        <v>619.9528544279926</v>
+        <v>724.4716545351282</v>
       </c>
       <c r="E35" t="n">
-        <v>191.371180165261</v>
+        <v>724.4716545351282</v>
       </c>
       <c r="F35" t="n">
-        <v>191.371180165261</v>
+        <v>724.4716545351282</v>
       </c>
       <c r="G35" t="n">
-        <v>191.371180165261</v>
+        <v>323.0738231583921</v>
       </c>
       <c r="H35" t="n">
         <v>33.94366860160834</v>
@@ -6940,19 +6940,19 @@
         <v>453.9965675465116</v>
       </c>
       <c r="K35" t="n">
-        <v>453.9965675465116</v>
+        <v>874.0494664914149</v>
       </c>
       <c r="L35" t="n">
-        <v>453.9965675465116</v>
+        <v>1107.976466382457</v>
       </c>
       <c r="M35" t="n">
-        <v>453.9965675465116</v>
+        <v>1107.976466382457</v>
       </c>
       <c r="N35" t="n">
-        <v>453.9965675465116</v>
+        <v>1107.976466382457</v>
       </c>
       <c r="O35" t="n">
-        <v>687.9235674375537</v>
+        <v>1107.976466382457</v>
       </c>
       <c r="P35" t="n">
         <v>1107.976466382457</v>
@@ -6970,19 +6970,19 @@
         <v>1477.116202953456</v>
       </c>
       <c r="U35" t="n">
-        <v>1477.116202953456</v>
+        <v>1217.893900270473</v>
       </c>
       <c r="V35" t="n">
-        <v>1477.116202953456</v>
+        <v>1217.893900270473</v>
       </c>
       <c r="W35" t="n">
-        <v>1477.116202953456</v>
+        <v>1217.893900270473</v>
       </c>
       <c r="X35" t="n">
-        <v>1477.116202953456</v>
+        <v>1132.757778235475</v>
       </c>
       <c r="Y35" t="n">
-        <v>1477.116202953456</v>
+        <v>724.4716545351282</v>
       </c>
     </row>
     <row r="36">
@@ -6995,7 +6995,7 @@
         <v>540.1154135929012</v>
       </c>
       <c r="C36" t="n">
-        <v>433.6589524295434</v>
+        <v>433.6589524295435</v>
       </c>
       <c r="D36" t="n">
         <v>338.5686635760967</v>
@@ -7004,10 +7004,10 @@
         <v>244.4482489030504</v>
       </c>
       <c r="F36" t="n">
-        <v>161.064410519212</v>
+        <v>161.0644105192121</v>
       </c>
       <c r="G36" t="n">
-        <v>75.67932078539587</v>
+        <v>75.67932078539593</v>
       </c>
       <c r="H36" t="n">
         <v>33.94366860160834</v>
@@ -7022,19 +7022,19 @@
         <v>804.6185656731816</v>
       </c>
       <c r="L36" t="n">
-        <v>1159.957753041174</v>
+        <v>1224.671464618085</v>
       </c>
       <c r="M36" t="n">
-        <v>1159.957753041174</v>
+        <v>1580.010651986078</v>
       </c>
       <c r="N36" t="n">
-        <v>1159.957753041174</v>
+        <v>1580.010651986078</v>
       </c>
       <c r="O36" t="n">
-        <v>1159.957753041174</v>
+        <v>1580.010651986078</v>
       </c>
       <c r="P36" t="n">
-        <v>1159.957753041174</v>
+        <v>1580.010651986078</v>
       </c>
       <c r="Q36" t="n">
         <v>1580.010651986078</v>
@@ -7071,22 +7071,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>33.94366860160834</v>
+        <v>339.4371178854062</v>
       </c>
       <c r="C37" t="n">
-        <v>33.94366860160834</v>
+        <v>339.4371178854062</v>
       </c>
       <c r="D37" t="n">
-        <v>33.94366860160834</v>
+        <v>339.4371178854062</v>
       </c>
       <c r="E37" t="n">
-        <v>33.94366860160834</v>
+        <v>339.4371178854062</v>
       </c>
       <c r="F37" t="n">
-        <v>33.94366860160834</v>
+        <v>339.4371178854062</v>
       </c>
       <c r="G37" t="n">
-        <v>33.94366860160834</v>
+        <v>173.8458429112338</v>
       </c>
       <c r="H37" t="n">
         <v>33.94366860160834</v>
@@ -7095,52 +7095,52 @@
         <v>33.94366860160834</v>
       </c>
       <c r="J37" t="n">
-        <v>33.94366860160834</v>
+        <v>120.5233537662982</v>
       </c>
       <c r="K37" t="n">
-        <v>33.94366860160834</v>
+        <v>395.2818083374338</v>
       </c>
       <c r="L37" t="n">
-        <v>452.1535503695694</v>
+        <v>813.4916901053949</v>
       </c>
       <c r="M37" t="n">
-        <v>872.2064493144727</v>
+        <v>813.4916901053949</v>
       </c>
       <c r="N37" t="n">
-        <v>1277.514180854636</v>
+        <v>813.4916901053949</v>
       </c>
       <c r="O37" t="n">
-        <v>1697.183430080417</v>
+        <v>1181.483761245743</v>
       </c>
       <c r="P37" t="n">
-        <v>1697.183430080417</v>
+        <v>1528.990655216085</v>
       </c>
       <c r="Q37" t="n">
         <v>1697.183430080417</v>
       </c>
       <c r="R37" t="n">
-        <v>1695.229994665251</v>
+        <v>1675.765608785789</v>
       </c>
       <c r="S37" t="n">
-        <v>1535.988625963248</v>
+        <v>1675.765608785789</v>
       </c>
       <c r="T37" t="n">
-        <v>1535.988625963248</v>
+        <v>1429.886162364244</v>
       </c>
       <c r="U37" t="n">
-        <v>1257.555625216353</v>
+        <v>1429.886162364244</v>
       </c>
       <c r="V37" t="n">
-        <v>970.6001170867833</v>
+        <v>1142.930654234675</v>
       </c>
       <c r="W37" t="n">
-        <v>698.5737126730747</v>
+        <v>870.9042498209665</v>
       </c>
       <c r="X37" t="n">
-        <v>453.1819580064872</v>
+        <v>625.5124951543789</v>
       </c>
       <c r="Y37" t="n">
-        <v>225.7622873205955</v>
+        <v>398.0928244684872</v>
       </c>
     </row>
     <row r="38">
@@ -7150,19 +7150,19 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>161.1802874272903</v>
+        <v>1134.24202645431</v>
       </c>
       <c r="C38" t="n">
-        <v>33.94366860160834</v>
+        <v>705.6603521915781</v>
       </c>
       <c r="D38" t="n">
-        <v>33.94366860160834</v>
+        <v>435.3414999783445</v>
       </c>
       <c r="E38" t="n">
-        <v>33.94366860160834</v>
+        <v>435.3414999783445</v>
       </c>
       <c r="F38" t="n">
-        <v>33.94366860160834</v>
+        <v>435.3414999783445</v>
       </c>
       <c r="G38" t="n">
         <v>33.94366860160834</v>
@@ -7174,19 +7174,19 @@
         <v>33.94366860160834</v>
       </c>
       <c r="J38" t="n">
-        <v>453.9965675465116</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="K38" t="n">
-        <v>453.9965675465116</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="L38" t="n">
-        <v>453.9965675465116</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="M38" t="n">
-        <v>453.9965675465116</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="N38" t="n">
-        <v>453.9965675465116</v>
+        <v>267.8706684926505</v>
       </c>
       <c r="O38" t="n">
         <v>687.9235674375537</v>
@@ -7207,19 +7207,19 @@
         <v>1393.464329137293</v>
       </c>
       <c r="U38" t="n">
-        <v>1393.464329137293</v>
+        <v>1134.24202645431</v>
       </c>
       <c r="V38" t="n">
-        <v>1393.464329137293</v>
+        <v>1134.24202645431</v>
       </c>
       <c r="W38" t="n">
-        <v>988.6088745483262</v>
+        <v>1134.24202645431</v>
       </c>
       <c r="X38" t="n">
-        <v>569.4664111276369</v>
+        <v>1134.24202645431</v>
       </c>
       <c r="Y38" t="n">
-        <v>161.1802874272903</v>
+        <v>1134.24202645431</v>
       </c>
     </row>
     <row r="39">
@@ -7232,7 +7232,7 @@
         <v>540.1154135929012</v>
       </c>
       <c r="C39" t="n">
-        <v>433.6589524295434</v>
+        <v>433.6589524295435</v>
       </c>
       <c r="D39" t="n">
         <v>338.5686635760967</v>
@@ -7241,10 +7241,10 @@
         <v>244.4482489030504</v>
       </c>
       <c r="F39" t="n">
-        <v>161.064410519212</v>
+        <v>161.0644105192121</v>
       </c>
       <c r="G39" t="n">
-        <v>75.67932078539587</v>
+        <v>75.67932078539593</v>
       </c>
       <c r="H39" t="n">
         <v>33.94366860160834</v>
@@ -7308,43 +7308,43 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>1113.00182921349</v>
+        <v>847.6348259499213</v>
       </c>
       <c r="C40" t="n">
-        <v>940.4401176967148</v>
+        <v>675.0731144331462</v>
       </c>
       <c r="D40" t="n">
-        <v>774.5621248982375</v>
+        <v>509.1951216346689</v>
       </c>
       <c r="E40" t="n">
-        <v>604.8041211489747</v>
+        <v>339.4371178854062</v>
       </c>
       <c r="F40" t="n">
-        <v>428.0970671107308</v>
+        <v>339.4371178854062</v>
       </c>
       <c r="G40" t="n">
-        <v>262.5057921365585</v>
+        <v>173.8458429112338</v>
       </c>
       <c r="H40" t="n">
-        <v>122.603617826933</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="I40" t="n">
         <v>33.94366860160834</v>
       </c>
       <c r="J40" t="n">
-        <v>33.94366860160834</v>
+        <v>120.5233537662982</v>
       </c>
       <c r="K40" t="n">
-        <v>33.94366860160834</v>
+        <v>395.2818083374338</v>
       </c>
       <c r="L40" t="n">
-        <v>341.7616130750586</v>
+        <v>813.4916901053949</v>
       </c>
       <c r="M40" t="n">
-        <v>341.7616130750586</v>
+        <v>813.4916901053949</v>
       </c>
       <c r="N40" t="n">
-        <v>761.8145120199619</v>
+        <v>813.4916901053949</v>
       </c>
       <c r="O40" t="n">
         <v>1181.483761245743</v>
@@ -7362,22 +7362,22 @@
         <v>1537.942061378414</v>
       </c>
       <c r="T40" t="n">
-        <v>1537.942061378414</v>
+        <v>1292.062614956869</v>
       </c>
       <c r="U40" t="n">
-        <v>1537.942061378414</v>
+        <v>1292.062614956869</v>
       </c>
       <c r="V40" t="n">
-        <v>1537.942061378414</v>
+        <v>1292.062614956869</v>
       </c>
       <c r="W40" t="n">
-        <v>1537.942061378414</v>
+        <v>1020.036210543161</v>
       </c>
       <c r="X40" t="n">
-        <v>1532.240118618369</v>
+        <v>847.6348259499213</v>
       </c>
       <c r="Y40" t="n">
-        <v>1304.820447932477</v>
+        <v>847.6348259499213</v>
       </c>
     </row>
     <row r="41">
@@ -7387,19 +7387,19 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1075.344177331261</v>
+        <v>1068.830079253109</v>
       </c>
       <c r="C41" t="n">
-        <v>1075.344177331261</v>
+        <v>640.2484049903778</v>
       </c>
       <c r="D41" t="n">
-        <v>1075.344177331261</v>
+        <v>211.6667307276462</v>
       </c>
       <c r="E41" t="n">
-        <v>863.2089295691367</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="F41" t="n">
-        <v>435.3414999783445</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="G41" t="n">
         <v>33.94366860160834</v>
@@ -7441,22 +7441,22 @@
         <v>1697.183430080417</v>
       </c>
       <c r="T41" t="n">
-        <v>1697.183430080417</v>
+        <v>1477.116202953456</v>
       </c>
       <c r="U41" t="n">
-        <v>1437.961127397434</v>
+        <v>1477.116202953456</v>
       </c>
       <c r="V41" t="n">
-        <v>1075.344177331261</v>
+        <v>1477.116202953456</v>
       </c>
       <c r="W41" t="n">
-        <v>1075.344177331261</v>
+        <v>1477.116202953456</v>
       </c>
       <c r="X41" t="n">
-        <v>1075.344177331261</v>
+        <v>1477.116202953456</v>
       </c>
       <c r="Y41" t="n">
-        <v>1075.344177331261</v>
+        <v>1068.830079253109</v>
       </c>
     </row>
     <row r="42">
@@ -7469,7 +7469,7 @@
         <v>540.1154135929012</v>
       </c>
       <c r="C42" t="n">
-        <v>433.6589524295434</v>
+        <v>433.6589524295435</v>
       </c>
       <c r="D42" t="n">
         <v>338.5686635760967</v>
@@ -7478,10 +7478,10 @@
         <v>244.4482489030504</v>
       </c>
       <c r="F42" t="n">
-        <v>161.064410519212</v>
+        <v>161.0644105192121</v>
       </c>
       <c r="G42" t="n">
-        <v>75.67932078539587</v>
+        <v>75.67932078539593</v>
       </c>
       <c r="H42" t="n">
         <v>33.94366860160834</v>
@@ -7545,22 +7545,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>858.7506050139928</v>
+        <v>711.6628811189632</v>
       </c>
       <c r="C43" t="n">
-        <v>686.1888934972177</v>
+        <v>711.6628811189632</v>
       </c>
       <c r="D43" t="n">
-        <v>520.3109006987404</v>
+        <v>546.0000013632873</v>
       </c>
       <c r="E43" t="n">
-        <v>350.5528969494776</v>
+        <v>376.2419976140245</v>
       </c>
       <c r="F43" t="n">
-        <v>173.8458429112338</v>
+        <v>199.5349435757807</v>
       </c>
       <c r="G43" t="n">
-        <v>173.8458429112338</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="H43" t="n">
         <v>33.94366860160834</v>
@@ -7575,13 +7575,13 @@
         <v>395.2818083374338</v>
       </c>
       <c r="L43" t="n">
-        <v>395.2818083374338</v>
+        <v>813.4916901053949</v>
       </c>
       <c r="M43" t="n">
-        <v>815.3347072823371</v>
+        <v>813.4916901053949</v>
       </c>
       <c r="N43" t="n">
-        <v>815.3347072823371</v>
+        <v>813.4916901053949</v>
       </c>
       <c r="O43" t="n">
         <v>1181.483761245743</v>
@@ -7593,28 +7593,28 @@
         <v>1697.183430080417</v>
       </c>
       <c r="R43" t="n">
-        <v>1697.183430080417</v>
+        <v>1675.765608785789</v>
       </c>
       <c r="S43" t="n">
-        <v>1537.942061378414</v>
+        <v>1516.524240083786</v>
       </c>
       <c r="T43" t="n">
-        <v>1537.942061378414</v>
+        <v>1270.644793662241</v>
       </c>
       <c r="U43" t="n">
-        <v>1537.942061378414</v>
+        <v>1270.644793662241</v>
       </c>
       <c r="V43" t="n">
-        <v>1537.942061378414</v>
+        <v>983.6892855326716</v>
       </c>
       <c r="W43" t="n">
-        <v>1523.380649085459</v>
+        <v>711.6628811189632</v>
       </c>
       <c r="X43" t="n">
-        <v>1277.988894418872</v>
+        <v>711.6628811189632</v>
       </c>
       <c r="Y43" t="n">
-        <v>1050.56922373298</v>
+        <v>711.6628811189632</v>
       </c>
     </row>
     <row r="44">
@@ -7624,25 +7624,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1697.183430080417</v>
+        <v>1180.237171683855</v>
       </c>
       <c r="C44" t="n">
-        <v>1319.391236090724</v>
+        <v>751.6554974211238</v>
       </c>
       <c r="D44" t="n">
-        <v>890.8095618279922</v>
+        <v>751.6554974211238</v>
       </c>
       <c r="E44" t="n">
-        <v>462.2278875652606</v>
+        <v>323.0738231583921</v>
       </c>
       <c r="F44" t="n">
-        <v>34.36045797446834</v>
+        <v>323.0738231583921</v>
       </c>
       <c r="G44" t="n">
-        <v>34.36045797446834</v>
+        <v>323.0738231583921</v>
       </c>
       <c r="H44" t="n">
-        <v>34.36045797446834</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="I44" t="n">
         <v>33.94366860160834</v>
@@ -7651,19 +7651,19 @@
         <v>453.9965675465116</v>
       </c>
       <c r="K44" t="n">
-        <v>687.9235674375537</v>
+        <v>874.0494664914149</v>
       </c>
       <c r="L44" t="n">
-        <v>687.9235674375537</v>
+        <v>1107.976466382457</v>
       </c>
       <c r="M44" t="n">
-        <v>687.9235674375537</v>
+        <v>1107.976466382457</v>
       </c>
       <c r="N44" t="n">
-        <v>687.9235674375537</v>
+        <v>1107.976466382457</v>
       </c>
       <c r="O44" t="n">
-        <v>687.9235674375537</v>
+        <v>1107.976466382457</v>
       </c>
       <c r="P44" t="n">
         <v>1107.976466382457</v>
@@ -7675,25 +7675,25 @@
         <v>1697.183430080417</v>
       </c>
       <c r="S44" t="n">
-        <v>1697.183430080417</v>
+        <v>1659.5267014938</v>
       </c>
       <c r="T44" t="n">
-        <v>1697.183430080417</v>
+        <v>1439.459474366839</v>
       </c>
       <c r="U44" t="n">
-        <v>1697.183430080417</v>
+        <v>1180.237171683855</v>
       </c>
       <c r="V44" t="n">
-        <v>1697.183430080417</v>
+        <v>1180.237171683855</v>
       </c>
       <c r="W44" t="n">
-        <v>1697.183430080417</v>
+        <v>1180.237171683855</v>
       </c>
       <c r="X44" t="n">
-        <v>1697.183430080417</v>
+        <v>1180.237171683855</v>
       </c>
       <c r="Y44" t="n">
-        <v>1697.183430080417</v>
+        <v>1180.237171683855</v>
       </c>
     </row>
     <row r="45">
@@ -7706,7 +7706,7 @@
         <v>540.1154135929012</v>
       </c>
       <c r="C45" t="n">
-        <v>433.6589524295434</v>
+        <v>433.6589524295435</v>
       </c>
       <c r="D45" t="n">
         <v>338.5686635760967</v>
@@ -7715,10 +7715,10 @@
         <v>244.4482489030504</v>
       </c>
       <c r="F45" t="n">
-        <v>161.064410519212</v>
+        <v>161.0644105192121</v>
       </c>
       <c r="G45" t="n">
-        <v>75.67932078539587</v>
+        <v>75.67932078539593</v>
       </c>
       <c r="H45" t="n">
         <v>33.94366860160834</v>
@@ -7782,25 +7782,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>947.4105542393174</v>
+        <v>718.8484307043673</v>
       </c>
       <c r="C46" t="n">
-        <v>774.8488427225424</v>
+        <v>546.2867191875922</v>
       </c>
       <c r="D46" t="n">
-        <v>608.9708499240651</v>
+        <v>380.4087263891149</v>
       </c>
       <c r="E46" t="n">
-        <v>439.2128461748023</v>
+        <v>210.6507226398521</v>
       </c>
       <c r="F46" t="n">
-        <v>262.5057921365585</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="G46" t="n">
-        <v>262.5057921365585</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="H46" t="n">
-        <v>122.603617826933</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="I46" t="n">
         <v>33.94366860160834</v>
@@ -7815,10 +7815,10 @@
         <v>813.4916901053949</v>
       </c>
       <c r="M46" t="n">
-        <v>813.4916901053949</v>
+        <v>1181.483761245743</v>
       </c>
       <c r="N46" t="n">
-        <v>813.4916901053949</v>
+        <v>1181.483761245743</v>
       </c>
       <c r="O46" t="n">
         <v>1181.483761245743</v>
@@ -7836,22 +7836,22 @@
         <v>1537.942061378414</v>
       </c>
       <c r="T46" t="n">
-        <v>1537.942061378414</v>
+        <v>1292.062614956869</v>
       </c>
       <c r="U46" t="n">
-        <v>1537.942061378414</v>
+        <v>1013.629614209975</v>
       </c>
       <c r="V46" t="n">
-        <v>1537.942061378414</v>
+        <v>910.6670494233545</v>
       </c>
       <c r="W46" t="n">
-        <v>1537.942061378414</v>
+        <v>910.6670494233545</v>
       </c>
       <c r="X46" t="n">
-        <v>1366.648843644196</v>
+        <v>910.6670494233545</v>
       </c>
       <c r="Y46" t="n">
-        <v>1139.229172958305</v>
+        <v>910.6670494233545</v>
       </c>
     </row>
   </sheetData>
@@ -9640,10 +9640,10 @@
         <v>424.2958575201043</v>
       </c>
       <c r="K23" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="L23" t="n">
-        <v>0</v>
+        <v>236.2898988798406</v>
       </c>
       <c r="M23" t="n">
         <v>0</v>
@@ -9652,10 +9652,10 @@
         <v>0</v>
       </c>
       <c r="O23" t="n">
-        <v>236.2898988798406</v>
+        <v>0</v>
       </c>
       <c r="P23" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="Q23" t="n">
         <v>424.2958575201044</v>
@@ -9722,7 +9722,7 @@
         <v>424.2958575201044</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>358.9284720888814</v>
       </c>
       <c r="M24" t="n">
         <v>0</v>
@@ -9734,7 +9734,7 @@
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>358.9284720888814</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
         <v>424.2958575201044</v>
@@ -9795,28 +9795,28 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K25" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L25" t="n">
         <v>422.4342240080415</v>
       </c>
       <c r="M25" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="N25" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="O25" t="n">
-        <v>409.0142240616578</v>
+        <v>371.7091627680287</v>
       </c>
       <c r="P25" t="n">
-        <v>0</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q25" t="n">
-        <v>0</v>
+        <v>169.8916917821538</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -9877,7 +9877,7 @@
         <v>424.2958575201043</v>
       </c>
       <c r="K26" t="n">
-        <v>407.152590549595</v>
+        <v>0</v>
       </c>
       <c r="L26" t="n">
         <v>0</v>
@@ -9889,7 +9889,7 @@
         <v>0</v>
       </c>
       <c r="O26" t="n">
-        <v>0</v>
+        <v>236.2898988798406</v>
       </c>
       <c r="P26" t="n">
         <v>424.2958575201044</v>
@@ -9898,7 +9898,7 @@
         <v>424.2958575201044</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9950,16 +9950,16 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J27" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K27" t="n">
-        <v>424.2958575201043</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="L27" t="n">
-        <v>385.2554146752024</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
         <v>0</v>
@@ -9971,7 +9971,7 @@
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>358.9284720888814</v>
       </c>
       <c r="Q27" t="n">
         <v>424.2958575201044</v>
@@ -10032,7 +10032,7 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K28" t="n">
         <v>277.5337924960966</v>
@@ -10044,16 +10044,16 @@
         <v>0</v>
       </c>
       <c r="N28" t="n">
-        <v>205.1467494379689</v>
+        <v>0</v>
       </c>
       <c r="O28" t="n">
-        <v>423.9083325512944</v>
+        <v>371.7091627680287</v>
       </c>
       <c r="P28" t="n">
         <v>351.0170646165068</v>
       </c>
       <c r="Q28" t="n">
-        <v>0</v>
+        <v>169.8916917821538</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -10269,7 +10269,7 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>87.45422743908067</v>
+        <v>35.25505765581501</v>
       </c>
       <c r="K31" t="n">
         <v>277.5337924960966</v>
@@ -10284,7 +10284,7 @@
         <v>0</v>
       </c>
       <c r="O31" t="n">
-        <v>371.7091627680287</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P31" t="n">
         <v>351.0170646165068</v>
@@ -10348,22 +10348,22 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
+        <v>0</v>
+      </c>
+      <c r="K32" t="n">
+        <v>0</v>
+      </c>
+      <c r="L32" t="n">
+        <v>0</v>
+      </c>
+      <c r="M32" t="n">
+        <v>0</v>
+      </c>
+      <c r="N32" t="n">
+        <v>236.2898988798406</v>
+      </c>
+      <c r="O32" t="n">
         <v>424.2958575201043</v>
-      </c>
-      <c r="K32" t="n">
-        <v>0</v>
-      </c>
-      <c r="L32" t="n">
-        <v>0</v>
-      </c>
-      <c r="M32" t="n">
-        <v>0</v>
-      </c>
-      <c r="N32" t="n">
-        <v>0</v>
-      </c>
-      <c r="O32" t="n">
-        <v>236.2898988798406</v>
       </c>
       <c r="P32" t="n">
         <v>424.2958575201044</v>
@@ -10424,31 +10424,31 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J33" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K33" t="n">
-        <v>385.2554146752023</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="L33" t="n">
+        <v>358.9284720888814</v>
+      </c>
+      <c r="M33" t="n">
+        <v>0</v>
+      </c>
+      <c r="N33" t="n">
+        <v>0</v>
+      </c>
+      <c r="O33" t="n">
+        <v>0</v>
+      </c>
+      <c r="P33" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q33" t="n">
         <v>424.2958575201044</v>
-      </c>
-      <c r="M33" t="n">
-        <v>0</v>
-      </c>
-      <c r="N33" t="n">
-        <v>0</v>
-      </c>
-      <c r="O33" t="n">
-        <v>0</v>
-      </c>
-      <c r="P33" t="n">
-        <v>424.2958575201044</v>
-      </c>
-      <c r="Q33" t="n">
-        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>118.3563415094341</v>
@@ -10512,13 +10512,13 @@
         <v>277.5337924960966</v>
       </c>
       <c r="L34" t="n">
-        <v>0</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M34" t="n">
-        <v>369.8475292559658</v>
+        <v>371.7091627680287</v>
       </c>
       <c r="N34" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="O34" t="n">
         <v>0</v>
@@ -10588,10 +10588,10 @@
         <v>424.2958575201043</v>
       </c>
       <c r="K35" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="L35" t="n">
-        <v>0</v>
+        <v>236.2898988798406</v>
       </c>
       <c r="M35" t="n">
         <v>0</v>
@@ -10600,10 +10600,10 @@
         <v>0</v>
       </c>
       <c r="O35" t="n">
-        <v>236.2898988798406</v>
+        <v>0</v>
       </c>
       <c r="P35" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="Q35" t="n">
         <v>424.2958575201044</v>
@@ -10670,10 +10670,10 @@
         <v>424.2958575201044</v>
       </c>
       <c r="L36" t="n">
-        <v>358.9284720888814</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>358.9284720888816</v>
       </c>
       <c r="N36" t="n">
         <v>0</v>
@@ -10685,7 +10685,7 @@
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>118.3563415094341</v>
@@ -10743,28 +10743,28 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K37" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L37" t="n">
         <v>422.4342240080415</v>
       </c>
       <c r="M37" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="N37" t="n">
-        <v>409.401749030468</v>
+        <v>0</v>
       </c>
       <c r="O37" t="n">
-        <v>423.9083325512944</v>
+        <v>371.7091627680287</v>
       </c>
       <c r="P37" t="n">
-        <v>0</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q37" t="n">
-        <v>0</v>
+        <v>169.8916917821538</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -10822,22 +10822,22 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
+        <v>0</v>
+      </c>
+      <c r="K38" t="n">
+        <v>0</v>
+      </c>
+      <c r="L38" t="n">
+        <v>0</v>
+      </c>
+      <c r="M38" t="n">
+        <v>0</v>
+      </c>
+      <c r="N38" t="n">
+        <v>236.2898988798406</v>
+      </c>
+      <c r="O38" t="n">
         <v>424.2958575201043</v>
-      </c>
-      <c r="K38" t="n">
-        <v>0</v>
-      </c>
-      <c r="L38" t="n">
-        <v>0</v>
-      </c>
-      <c r="M38" t="n">
-        <v>0</v>
-      </c>
-      <c r="N38" t="n">
-        <v>0</v>
-      </c>
-      <c r="O38" t="n">
-        <v>236.2898988798406</v>
       </c>
       <c r="P38" t="n">
         <v>424.2958575201044</v>
@@ -10980,22 +10980,22 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K40" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L40" t="n">
-        <v>310.9272166398487</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M40" t="n">
         <v>0</v>
       </c>
       <c r="N40" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="O40" t="n">
-        <v>423.9083325512944</v>
+        <v>371.7091627680287</v>
       </c>
       <c r="P40" t="n">
         <v>351.0170646165068</v>
@@ -11223,16 +11223,16 @@
         <v>277.5337924960966</v>
       </c>
       <c r="L43" t="n">
-        <v>0</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M43" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="N43" t="n">
         <v>0</v>
       </c>
       <c r="O43" t="n">
-        <v>369.8475292559658</v>
+        <v>371.7091627680287</v>
       </c>
       <c r="P43" t="n">
         <v>351.0170646165068</v>
@@ -11299,11 +11299,11 @@
         <v>424.2958575201043</v>
       </c>
       <c r="K44" t="n">
+        <v>424.2958575201043</v>
+      </c>
+      <c r="L44" t="n">
         <v>236.2898988798406</v>
       </c>
-      <c r="L44" t="n">
-        <v>0</v>
-      </c>
       <c r="M44" t="n">
         <v>0</v>
       </c>
@@ -11314,7 +11314,7 @@
         <v>0</v>
       </c>
       <c r="P44" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="Q44" t="n">
         <v>424.2958575201044</v>
@@ -11463,13 +11463,13 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M46" t="n">
-        <v>0</v>
+        <v>371.7091627680287</v>
       </c>
       <c r="N46" t="n">
         <v>0</v>
       </c>
       <c r="O46" t="n">
-        <v>371.7091627680287</v>
+        <v>0</v>
       </c>
       <c r="P46" t="n">
         <v>351.0170646165068</v>
@@ -24217,7 +24217,7 @@
         <v>429.4369973932878</v>
       </c>
       <c r="F23" t="n">
-        <v>423.5887552948843</v>
+        <v>418.7229871379716</v>
       </c>
       <c r="G23" t="n">
         <v>0</v>
@@ -24256,25 +24256,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
         <v>358.9907805655117</v>
       </c>
       <c r="W23" t="n">
-        <v>256.9765435030661</v>
+        <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y23" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="24">
@@ -24363,7 +24363,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
@@ -24375,7 +24375,7 @@
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>103.4269518949029</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>163.9353622244306</v>
@@ -24414,25 +24414,25 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S25" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>243.4206519573293</v>
+        <v>90.50170122077475</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24451,10 +24451,10 @@
         <v>7.254829457195569</v>
       </c>
       <c r="E26" t="n">
-        <v>272.8766587200516</v>
+        <v>5.14113987318342</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>49.86896399117649</v>
       </c>
       <c r="G26" t="n">
         <v>397.3838530629687</v>
@@ -24496,7 +24496,7 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U26" t="n">
         <v>256.6300796561533</v>
@@ -24606,7 +24606,7 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
@@ -24615,13 +24615,13 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>106.0122620221432</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24663,10 +24663,10 @@
         <v>284.0859530482738</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>96.95753653850093</v>
       </c>
       <c r="X28" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -24679,25 +24679,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
         <v>433.7610480884109</v>
       </c>
       <c r="D29" t="n">
-        <v>431.5506869772999</v>
+        <v>27.95250625119093</v>
       </c>
       <c r="E29" t="n">
         <v>429.4369973932878</v>
       </c>
       <c r="F29" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
         <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I29" t="n">
         <v>0.4126214791313976</v>
@@ -24736,13 +24736,13 @@
         <v>217.8665548556918</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W29" t="n">
-        <v>53.44310247490591</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X29" t="n">
         <v>414.9510387864824</v>
@@ -24837,7 +24837,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>170.8360944016073</v>
@@ -24849,13 +24849,13 @@
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>90.72262734568655</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>87.77334973307141</v>
@@ -24894,19 +24894,19 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>254.8149552296314</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X31" t="n">
         <v>242.9378371199217</v>
       </c>
       <c r="Y31" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -24919,22 +24919,22 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C32" t="n">
-        <v>433.7610480884109</v>
+        <v>9.465190568306582</v>
       </c>
       <c r="D32" t="n">
-        <v>20.86697025761458</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E32" t="n">
         <v>429.4369973932878</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H32" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
         <v>0.4126214791313976</v>
@@ -24967,22 +24967,22 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>400.806900043077</v>
+        <v>381.0370168657346</v>
       </c>
       <c r="X32" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y32" t="n">
         <v>404.2032624633431</v>
@@ -25080,19 +25080,19 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>109.0751890883727</v>
       </c>
       <c r="E34" t="n">
-        <v>74.55334590428785</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>87.77334973307141</v>
@@ -25122,7 +25122,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -25134,13 +25134,13 @@
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W34" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y34" t="n">
         <v>225.1454739790328</v>
@@ -25156,22 +25156,22 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C35" t="n">
-        <v>9.465190568306582</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D35" t="n">
-        <v>7.254829457195569</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E35" t="n">
-        <v>5.14113987318342</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F35" t="n">
         <v>423.5887552948843</v>
       </c>
       <c r="G35" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>130.3856165631998</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
         <v>0.4126214791313976</v>
@@ -25210,7 +25210,7 @@
         <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
         <v>358.9907805655117</v>
@@ -25219,10 +25219,10 @@
         <v>400.806900043077</v>
       </c>
       <c r="X35" t="n">
-        <v>414.9510387864824</v>
+        <v>330.6662779718342</v>
       </c>
       <c r="Y35" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -25311,7 +25311,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>131.831283014547</v>
       </c>
       <c r="C37" t="n">
         <v>170.8360944016073</v>
@@ -25326,10 +25326,10 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G37" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>87.77334973307141</v>
@@ -25359,16 +25359,16 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>19.26974202066723</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T37" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -25393,10 +25393,10 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C38" t="n">
-        <v>307.7967954509858</v>
+        <v>9.465190568306582</v>
       </c>
       <c r="D38" t="n">
-        <v>431.5506869772999</v>
+        <v>163.9350232861986</v>
       </c>
       <c r="E38" t="n">
         <v>429.4369973932878</v>
@@ -25405,7 +25405,7 @@
         <v>423.5887552948843</v>
       </c>
       <c r="G38" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
         <v>286.2388530112159</v>
@@ -25447,19 +25447,19 @@
         <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
         <v>358.9907805655117</v>
       </c>
       <c r="W38" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X38" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y38" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="39">
@@ -25548,7 +25548,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
@@ -25560,7 +25560,7 @@
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
@@ -25569,7 +25569,7 @@
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25602,7 +25602,7 @@
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>275.6486707394257</v>
@@ -25611,13 +25611,13 @@
         <v>284.0859530482738</v>
       </c>
       <c r="W40" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>237.2929137874768</v>
+        <v>72.26046637261442</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="41">
@@ -25630,19 +25630,19 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C41" t="n">
-        <v>433.7610480884109</v>
+        <v>9.465190568306582</v>
       </c>
       <c r="D41" t="n">
-        <v>431.5506869772999</v>
+        <v>7.254829457195569</v>
       </c>
       <c r="E41" t="n">
-        <v>219.423102108785</v>
+        <v>253.4911658885104</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H41" t="n">
         <v>286.2388530112159</v>
@@ -25681,13 +25681,13 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T41" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W41" t="n">
         <v>400.806900043077</v>
@@ -25696,7 +25696,7 @@
         <v>414.9510387864824</v>
       </c>
       <c r="Y41" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -25785,13 +25785,13 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>0.2129619123733733</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
@@ -25800,10 +25800,10 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I43" t="n">
         <v>87.77334973307141</v>
@@ -25833,28 +25833,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>275.6486707394257</v>
       </c>
       <c r="V43" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>254.8903421995461</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="44">
@@ -25867,25 +25867,25 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C44" t="n">
-        <v>59.74677603861437</v>
+        <v>9.465190568306582</v>
       </c>
       <c r="D44" t="n">
-        <v>7.254829457195569</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E44" t="n">
         <v>5.14113987318342</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G44" t="n">
         <v>397.3838530629687</v>
       </c>
       <c r="H44" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25915,13 +25915,13 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>82.81535507800136</v>
+        <v>45.53519377725011</v>
       </c>
       <c r="T44" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
         <v>358.9907805655117</v>
@@ -26040,10 +26040,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26076,22 +26076,22 @@
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>284.0859530482738</v>
+        <v>182.1530139095199</v>
       </c>
       <c r="W46" t="n">
         <v>269.3061403695714</v>
       </c>
       <c r="X46" t="n">
-        <v>73.35755156304614</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
   </sheetData>
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>373237.3950286654</v>
+        <v>373237.3950286653</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>373237.3950286653</v>
+        <v>373237.3950286654</v>
       </c>
     </row>
     <row r="14">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>373237.3950286654</v>
+        <v>373237.3950286653</v>
       </c>
     </row>
   </sheetData>
@@ -26334,28 +26334,28 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>78131.51941534781</v>
+        <v>78131.51941534779</v>
       </c>
       <c r="J2" t="n">
+        <v>78131.51941534778</v>
+      </c>
+      <c r="K2" t="n">
         <v>78131.51941534779</v>
       </c>
-      <c r="K2" t="n">
-        <v>78131.51941534776</v>
-      </c>
       <c r="L2" t="n">
-        <v>78131.51941534779</v>
+        <v>78131.51941534778</v>
       </c>
       <c r="M2" t="n">
         <v>78131.51941534779</v>
       </c>
       <c r="N2" t="n">
-        <v>78131.51941534776</v>
+        <v>78131.51941534781</v>
       </c>
       <c r="O2" t="n">
         <v>78131.51941534778</v>
       </c>
       <c r="P2" t="n">
-        <v>78131.51941534781</v>
+        <v>78131.51941534779</v>
       </c>
     </row>
     <row r="3">
@@ -26441,7 +26441,7 @@
         <v>31028.66177247689</v>
       </c>
       <c r="J4" t="n">
-        <v>31028.6617724769</v>
+        <v>31028.66177247689</v>
       </c>
       <c r="K4" t="n">
         <v>31028.66177247689</v>
@@ -26456,10 +26456,10 @@
         <v>31028.66177247689</v>
       </c>
       <c r="O4" t="n">
-        <v>31028.6617724769</v>
+        <v>31028.66177247689</v>
       </c>
       <c r="P4" t="n">
-        <v>31028.6617724769</v>
+        <v>31028.66177247689</v>
       </c>
     </row>
     <row r="5">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-33627.6</v>
+        <v>-34967.96829972602</v>
       </c>
       <c r="C6" t="n">
-        <v>-33627.6</v>
+        <v>-34967.96829972602</v>
       </c>
       <c r="D6" t="n">
-        <v>-33627.6</v>
+        <v>-34967.96829972602</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>-1340.368299726021</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>-1340.368299726021</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>-1340.368299726021</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>-1340.368299726021</v>
       </c>
       <c r="I6" t="n">
-        <v>-91523.50922195509</v>
+        <v>-92262.86583387078</v>
       </c>
       <c r="J6" t="n">
-        <v>21305.66950564855</v>
+        <v>20566.31289373289</v>
       </c>
       <c r="K6" t="n">
-        <v>21305.66950564853</v>
+        <v>20566.3128937329</v>
       </c>
       <c r="L6" t="n">
-        <v>21305.66950564856</v>
+        <v>20566.31289373289</v>
       </c>
       <c r="M6" t="n">
-        <v>21305.66950564856</v>
+        <v>20566.3128937329</v>
       </c>
       <c r="N6" t="n">
-        <v>21305.66950564853</v>
+        <v>20566.31289373292</v>
       </c>
       <c r="O6" t="n">
-        <v>21305.66950564853</v>
+        <v>20566.31289373289</v>
       </c>
       <c r="P6" t="n">
-        <v>21305.66950564856</v>
+        <v>20566.3128937329</v>
       </c>
     </row>
   </sheetData>
@@ -36360,10 +36360,10 @@
         <v>424.2958575201043</v>
       </c>
       <c r="K23" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="L23" t="n">
-        <v>0</v>
+        <v>236.2898988798406</v>
       </c>
       <c r="M23" t="n">
         <v>0</v>
@@ -36372,10 +36372,10 @@
         <v>0</v>
       </c>
       <c r="O23" t="n">
-        <v>236.2898988798406</v>
+        <v>0</v>
       </c>
       <c r="P23" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="Q23" t="n">
         <v>424.2958575201044</v>
@@ -36442,7 +36442,7 @@
         <v>424.2958575201044</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>358.9284720888814</v>
       </c>
       <c r="M24" t="n">
         <v>0</v>
@@ -36454,7 +36454,7 @@
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>358.9284720888814</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
         <v>424.2958575201044</v>
@@ -36515,28 +36515,28 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K25" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L25" t="n">
         <v>422.4342240080415</v>
       </c>
       <c r="M25" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="N25" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="O25" t="n">
-        <v>409.0142240616578</v>
+        <v>371.7091627680287</v>
       </c>
       <c r="P25" t="n">
-        <v>0</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q25" t="n">
-        <v>0</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36597,7 +36597,7 @@
         <v>424.2958575201043</v>
       </c>
       <c r="K26" t="n">
-        <v>407.152590549595</v>
+        <v>0</v>
       </c>
       <c r="L26" t="n">
         <v>0</v>
@@ -36609,7 +36609,7 @@
         <v>0</v>
       </c>
       <c r="O26" t="n">
-        <v>0</v>
+        <v>236.2898988798406</v>
       </c>
       <c r="P26" t="n">
         <v>424.2958575201044</v>
@@ -36618,7 +36618,7 @@
         <v>424.2958575201044</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>170.8626916697544</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36670,16 +36670,16 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J27" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K27" t="n">
-        <v>424.2958575201043</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="L27" t="n">
-        <v>385.2554146752024</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
         <v>0</v>
@@ -36691,7 +36691,7 @@
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>358.9284720888814</v>
       </c>
       <c r="Q27" t="n">
         <v>424.2958575201044</v>
@@ -36752,7 +36752,7 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K28" t="n">
         <v>277.5337924960966</v>
@@ -36764,16 +36764,16 @@
         <v>0</v>
       </c>
       <c r="N28" t="n">
-        <v>205.1467494379689</v>
+        <v>0</v>
       </c>
       <c r="O28" t="n">
-        <v>423.9083325512944</v>
+        <v>371.7091627680287</v>
       </c>
       <c r="P28" t="n">
         <v>351.0170646165068</v>
       </c>
       <c r="Q28" t="n">
-        <v>0</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36989,7 +36989,7 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>87.45422743908067</v>
+        <v>35.25505765581501</v>
       </c>
       <c r="K31" t="n">
         <v>277.5337924960966</v>
@@ -37004,7 +37004,7 @@
         <v>0</v>
       </c>
       <c r="O31" t="n">
-        <v>371.7091627680287</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P31" t="n">
         <v>351.0170646165068</v>
@@ -37068,22 +37068,22 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
+        <v>0</v>
+      </c>
+      <c r="K32" t="n">
+        <v>0</v>
+      </c>
+      <c r="L32" t="n">
+        <v>0</v>
+      </c>
+      <c r="M32" t="n">
+        <v>0</v>
+      </c>
+      <c r="N32" t="n">
+        <v>236.2898988798406</v>
+      </c>
+      <c r="O32" t="n">
         <v>424.2958575201043</v>
-      </c>
-      <c r="K32" t="n">
-        <v>0</v>
-      </c>
-      <c r="L32" t="n">
-        <v>0</v>
-      </c>
-      <c r="M32" t="n">
-        <v>0</v>
-      </c>
-      <c r="N32" t="n">
-        <v>0</v>
-      </c>
-      <c r="O32" t="n">
-        <v>236.2898988798406</v>
       </c>
       <c r="P32" t="n">
         <v>424.2958575201044</v>
@@ -37144,31 +37144,31 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J33" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K33" t="n">
-        <v>385.2554146752023</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="L33" t="n">
+        <v>358.9284720888814</v>
+      </c>
+      <c r="M33" t="n">
+        <v>0</v>
+      </c>
+      <c r="N33" t="n">
+        <v>0</v>
+      </c>
+      <c r="O33" t="n">
+        <v>0</v>
+      </c>
+      <c r="P33" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q33" t="n">
         <v>424.2958575201044</v>
-      </c>
-      <c r="M33" t="n">
-        <v>0</v>
-      </c>
-      <c r="N33" t="n">
-        <v>0</v>
-      </c>
-      <c r="O33" t="n">
-        <v>0</v>
-      </c>
-      <c r="P33" t="n">
-        <v>424.2958575201044</v>
-      </c>
-      <c r="Q33" t="n">
-        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>118.3563415094341</v>
@@ -37232,13 +37232,13 @@
         <v>277.5337924960966</v>
       </c>
       <c r="L34" t="n">
-        <v>0</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M34" t="n">
-        <v>369.8475292559658</v>
+        <v>371.7091627680287</v>
       </c>
       <c r="N34" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="O34" t="n">
         <v>0</v>
@@ -37308,10 +37308,10 @@
         <v>424.2958575201043</v>
       </c>
       <c r="K35" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="L35" t="n">
-        <v>0</v>
+        <v>236.2898988798406</v>
       </c>
       <c r="M35" t="n">
         <v>0</v>
@@ -37320,10 +37320,10 @@
         <v>0</v>
       </c>
       <c r="O35" t="n">
-        <v>236.2898988798406</v>
+        <v>0</v>
       </c>
       <c r="P35" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="Q35" t="n">
         <v>424.2958575201044</v>
@@ -37390,10 +37390,10 @@
         <v>424.2958575201044</v>
       </c>
       <c r="L36" t="n">
-        <v>358.9284720888814</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>358.9284720888816</v>
       </c>
       <c r="N36" t="n">
         <v>0</v>
@@ -37405,7 +37405,7 @@
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>118.3563415094341</v>
@@ -37463,28 +37463,28 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K37" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L37" t="n">
         <v>422.4342240080415</v>
       </c>
       <c r="M37" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="N37" t="n">
-        <v>409.401749030468</v>
+        <v>0</v>
       </c>
       <c r="O37" t="n">
-        <v>423.9083325512943</v>
+        <v>371.7091627680287</v>
       </c>
       <c r="P37" t="n">
-        <v>0</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q37" t="n">
-        <v>0</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37542,22 +37542,22 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
+        <v>0</v>
+      </c>
+      <c r="K38" t="n">
+        <v>0</v>
+      </c>
+      <c r="L38" t="n">
+        <v>0</v>
+      </c>
+      <c r="M38" t="n">
+        <v>0</v>
+      </c>
+      <c r="N38" t="n">
+        <v>236.2898988798406</v>
+      </c>
+      <c r="O38" t="n">
         <v>424.2958575201043</v>
-      </c>
-      <c r="K38" t="n">
-        <v>0</v>
-      </c>
-      <c r="L38" t="n">
-        <v>0</v>
-      </c>
-      <c r="M38" t="n">
-        <v>0</v>
-      </c>
-      <c r="N38" t="n">
-        <v>0</v>
-      </c>
-      <c r="O38" t="n">
-        <v>236.2898988798406</v>
       </c>
       <c r="P38" t="n">
         <v>424.2958575201044</v>
@@ -37700,22 +37700,22 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K40" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L40" t="n">
-        <v>310.9272166398487</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M40" t="n">
         <v>0</v>
       </c>
       <c r="N40" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="O40" t="n">
-        <v>423.9083325512944</v>
+        <v>371.7091627680287</v>
       </c>
       <c r="P40" t="n">
         <v>351.0170646165068</v>
@@ -37943,16 +37943,16 @@
         <v>277.5337924960966</v>
       </c>
       <c r="L43" t="n">
-        <v>0</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M43" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="N43" t="n">
         <v>0</v>
       </c>
       <c r="O43" t="n">
-        <v>369.8475292559658</v>
+        <v>371.7091627680287</v>
       </c>
       <c r="P43" t="n">
         <v>351.0170646165068</v>
@@ -38019,11 +38019,11 @@
         <v>424.2958575201043</v>
       </c>
       <c r="K44" t="n">
+        <v>424.2958575201043</v>
+      </c>
+      <c r="L44" t="n">
         <v>236.2898988798406</v>
       </c>
-      <c r="L44" t="n">
-        <v>0</v>
-      </c>
       <c r="M44" t="n">
         <v>0</v>
       </c>
@@ -38034,7 +38034,7 @@
         <v>0</v>
       </c>
       <c r="P44" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="Q44" t="n">
         <v>424.2958575201044</v>
@@ -38183,13 +38183,13 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M46" t="n">
-        <v>0</v>
+        <v>371.7091627680287</v>
       </c>
       <c r="N46" t="n">
         <v>0</v>
       </c>
       <c r="O46" t="n">
-        <v>371.7091627680287</v>
+        <v>0</v>
       </c>
       <c r="P46" t="n">
         <v>351.0170646165068</v>
